--- a/data/outputs/elasticity_scenarios_income.xlsx
+++ b/data/outputs/elasticity_scenarios_income.xlsx
@@ -525,22 +525,22 @@
         <v>2105686.61</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3070544657413438</v>
+        <v>0.3072104321145487</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6583766986351296</v>
+        <v>0.6585283717797609</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3416233013648704</v>
+        <v>0.3414716282202391</v>
       </c>
       <c r="J2" t="n">
-        <v>425680.3523496157</v>
+        <v>425994.6896640848</v>
       </c>
       <c r="K2" t="n">
-        <v>0.29706</v>
+        <v>0.29691</v>
       </c>
       <c r="L2" t="n">
-        <v>126452.6054689768</v>
+        <v>126482.0833081634</v>
       </c>
     </row>
     <row r="3">
@@ -573,22 +573,22 @@
         <v>649488.1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3409575102648143</v>
+        <v>0.3413014608233732</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8220613603458209</v>
+        <v>0.8222768222768222</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1779386396541792</v>
+        <v>0.1777231777231777</v>
       </c>
       <c r="J3" t="n">
-        <v>182043.7171359801</v>
+        <v>182275.1206115206</v>
       </c>
       <c r="K3" t="n">
-        <v>0.30078</v>
+        <v>0.30082</v>
       </c>
       <c r="L3" t="n">
-        <v>54755.10924016009</v>
+        <v>54832.00178235762</v>
       </c>
     </row>
     <row r="4">
@@ -621,22 +621,22 @@
         <v>8629717.699999999</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2063273245004359</v>
+        <v>0.20632162972511</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7329875945943517</v>
+        <v>0.7330033274452614</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2670124054056482</v>
+        <v>0.2669966725547385</v>
       </c>
       <c r="J4" t="n">
-        <v>1305118.543181891</v>
+        <v>1305110.533317586</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2356</v>
+        <v>0.23565</v>
       </c>
       <c r="L4" t="n">
-        <v>307485.9287736535</v>
+        <v>307549.2971762891</v>
       </c>
     </row>
     <row r="5">
@@ -669,22 +669,22 @@
         <v>1824620.78</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1480637950209739</v>
+        <v>0.1478833490122295</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6417100233381162</v>
+        <v>0.6414433985035</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3582899766618837</v>
+        <v>0.3585566014965001</v>
       </c>
       <c r="J5" t="n">
-        <v>173364.5577619721</v>
+        <v>173081.3339464156</v>
       </c>
       <c r="K5" t="n">
-        <v>0.15879</v>
+        <v>0.15894</v>
       </c>
       <c r="L5" t="n">
-        <v>27528.55812702354</v>
+        <v>27509.5472174433</v>
       </c>
     </row>
     <row r="6">
@@ -717,22 +717,22 @@
         <v>1023666.14</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1990256686571005</v>
+        <v>0.1987179487179487</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6714490306160801</v>
+        <v>0.6711120671112066</v>
       </c>
       <c r="I6" t="n">
-        <v>0.32855096938392</v>
+        <v>0.3288879328887933</v>
       </c>
       <c r="J6" t="n">
-        <v>136798.2309235868</v>
+        <v>136518.1774144977</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.03626</v>
+        <v>-0.0364</v>
       </c>
       <c r="L6" t="n">
-        <v>-4960.303853289258</v>
+        <v>-4969.261657887718</v>
       </c>
     </row>
     <row r="7">
@@ -765,22 +765,22 @@
         <v>13752907.35</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2498265839834491</v>
+        <v>0.2498510941344037</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6183103802867242</v>
+        <v>0.6182356708293308</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3816896197132758</v>
+        <v>0.3817643291706692</v>
       </c>
       <c r="J7" t="n">
-        <v>2124416.688973072</v>
+        <v>2124368.397579251</v>
       </c>
       <c r="K7" t="n">
-        <v>0.29747</v>
+        <v>0.29758</v>
       </c>
       <c r="L7" t="n">
-        <v>631950.2324688196</v>
+        <v>632169.5477516335</v>
       </c>
     </row>
     <row r="8">
@@ -813,22 +813,22 @@
         <v>6756407.98</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2517480618032195</v>
+        <v>0.2517605633802817</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4766405972679123</v>
+        <v>0.4764793185777893</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5233594027320877</v>
+        <v>0.5235206814222108</v>
       </c>
       <c r="J8" t="n">
-        <v>810724.0041025039</v>
+        <v>810489.9293295477</v>
       </c>
       <c r="K8" t="n">
-        <v>0.18734</v>
+        <v>0.18759</v>
       </c>
       <c r="L8" t="n">
-        <v>151881.0349285631</v>
+        <v>152039.8058429299</v>
       </c>
     </row>
     <row r="9">
@@ -861,22 +861,22 @@
         <v>4371378.46</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1419639158160544</v>
+        <v>0.141958316948486</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5069737465612842</v>
+        <v>0.5069776714513556</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4930262534387156</v>
+        <v>0.4930223285486444</v>
       </c>
       <c r="J9" t="n">
-        <v>314616.7555670574</v>
+        <v>314606.7831060606</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.02609</v>
+        <v>-0.02591</v>
       </c>
       <c r="L9" t="n">
-        <v>-8208.351152744528</v>
+        <v>-8151.461750278031</v>
       </c>
     </row>
     <row r="10">
@@ -909,22 +909,22 @@
         <v>28840228.56</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2559404002456657</v>
+        <v>0.2558393662068023</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5530107755759429</v>
+        <v>0.5529790319656778</v>
       </c>
       <c r="I10" t="n">
-        <v>0.446989224424057</v>
+        <v>0.4470209680343222</v>
       </c>
       <c r="J10" t="n">
-        <v>4081982.479991935</v>
+        <v>4080136.873291438</v>
       </c>
       <c r="K10" t="n">
-        <v>0.14839</v>
+        <v>0.14835</v>
       </c>
       <c r="L10" t="n">
-        <v>605725.3802060032</v>
+        <v>605288.3051527848</v>
       </c>
     </row>
     <row r="11">
@@ -957,22 +957,22 @@
         <v>182826.61</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2574884705483315</v>
+        <v>0.2575285565939771</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6260798213483735</v>
+        <v>0.6262396358315722</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3739201786516266</v>
+        <v>0.3737603641684279</v>
       </c>
       <c r="J11" t="n">
-        <v>29473.17350883361</v>
+        <v>29485.28647699561</v>
       </c>
       <c r="K11" t="n">
-        <v>0.13677</v>
+        <v>0.13666</v>
       </c>
       <c r="L11" t="n">
-        <v>4031.045940803172</v>
+        <v>4029.45924994622</v>
       </c>
     </row>
     <row r="12">
@@ -1005,22 +1005,22 @@
         <v>161241.61</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2672099177093497</v>
+        <v>0.2672811059907834</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6393420183685029</v>
+        <v>0.6394106813996316</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3606579816314971</v>
+        <v>0.3605893186003683</v>
       </c>
       <c r="J12" t="n">
-        <v>27546.27932351493</v>
+        <v>27556.5771786372</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1091</v>
+        <v>0.10893</v>
       </c>
       <c r="L12" t="n">
-        <v>3005.299074195479</v>
+        <v>3001.73795206895</v>
       </c>
     </row>
     <row r="13">
@@ -1053,22 +1053,22 @@
         <v>1272405.28</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2371211446754841</v>
+        <v>0.2371494090668548</v>
       </c>
       <c r="H13" t="n">
-        <v>0.661771212098159</v>
+        <v>0.661864288049316</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3382287879018411</v>
+        <v>0.3381357119506842</v>
       </c>
       <c r="J13" t="n">
-        <v>199665.7695149218</v>
+        <v>199717.6549796852</v>
       </c>
       <c r="K13" t="n">
-        <v>0.20769</v>
+        <v>0.20768</v>
       </c>
       <c r="L13" t="n">
-        <v>41468.5836705541</v>
+        <v>41477.36258618103</v>
       </c>
     </row>
     <row r="14">
@@ -1101,22 +1101,22 @@
         <v>29866970.79</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0191719951905797</v>
+        <v>0.06870144284128747</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5991911730892815</v>
+        <v>0.6053073563990594</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4008088269107185</v>
+        <v>0.3946926436009406</v>
       </c>
       <c r="J14" t="n">
-        <v>343102.5102973343</v>
+        <v>1242032.577696339</v>
       </c>
       <c r="K14" t="n">
-        <v>0.36909</v>
+        <v>0.28312</v>
       </c>
       <c r="L14" t="n">
-        <v>126635.7055256431</v>
+        <v>351644.2633973874</v>
       </c>
     </row>
     <row r="15">
@@ -1149,22 +1149,22 @@
         <v>6616402.24</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01533953977748657</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6208083501830146</v>
+        <v>0.6206367472190257</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3791916498169853</v>
+        <v>0.3793632527809743</v>
       </c>
       <c r="J15" t="n">
-        <v>63007.43204725609</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3068</v>
+        <v>0.24131</v>
       </c>
       <c r="L15" t="n">
-        <v>19330.68015209817</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1197,22 +1197,22 @@
         <v>12266920.62</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04641658875816154</v>
+        <v>0.04463399223756657</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6249202484967391</v>
+        <v>0.6606243105453027</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3750797515032608</v>
+        <v>0.3393756894546972</v>
       </c>
       <c r="J16" t="n">
-        <v>355822.471494653</v>
+        <v>361706.1057565368</v>
       </c>
       <c r="K16" t="n">
-        <v>0.42417</v>
+        <v>0.39213</v>
       </c>
       <c r="L16" t="n">
-        <v>150929.2177338869</v>
+        <v>141835.8152503108</v>
       </c>
     </row>
     <row r="17">
@@ -1245,22 +1245,22 @@
         <v>5687249.15</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6409500443662857</v>
+        <v>0.920328801770471</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4987777003295503</v>
+        <v>0.4718782634641205</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5012222996704496</v>
+        <v>0.5281217365358795</v>
       </c>
       <c r="J17" t="n">
-        <v>1818165.718684715</v>
+        <v>2469876.514344323</v>
       </c>
       <c r="K17" t="n">
-        <v>0.33303</v>
+        <v>0.09743</v>
       </c>
       <c r="L17" t="n">
-        <v>605503.7292935705</v>
+        <v>240640.0687925674</v>
       </c>
     </row>
     <row r="18">
@@ -1293,22 +1293,22 @@
         <v>2040027.59</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3369390225887031</v>
+        <v>0.4327009201205114</v>
       </c>
       <c r="H18" t="n">
-        <v>0.517520489032216</v>
+        <v>0.4425904569698717</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4824795109677841</v>
+        <v>0.5574095430301284</v>
       </c>
       <c r="J18" t="n">
-        <v>355725.4203449201</v>
+        <v>390684.2515950699</v>
       </c>
       <c r="K18" t="n">
-        <v>0.25049</v>
+        <v>0.38063</v>
       </c>
       <c r="L18" t="n">
-        <v>89105.66054219902</v>
+        <v>148706.1466846315</v>
       </c>
     </row>
     <row r="19">
@@ -1341,22 +1341,22 @@
         <v>12517690.9</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5959259744713358</v>
+        <v>0.5279845240827569</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5075471399388203</v>
+        <v>0.5276278458238184</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4924528600611799</v>
+        <v>0.4723721541761816</v>
       </c>
       <c r="J19" t="n">
-        <v>3786107.348360553</v>
+        <v>3487170.032570411</v>
       </c>
       <c r="K19" t="n">
-        <v>0.27478</v>
+        <v>0.26361</v>
       </c>
       <c r="L19" t="n">
-        <v>1040346.577182513</v>
+        <v>919252.8922858861</v>
       </c>
     </row>
     <row r="20">
@@ -1389,22 +1389,22 @@
         <v>428073.54</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2104810595712993</v>
+        <v>0.2107249772224391</v>
       </c>
       <c r="H20" t="n">
-        <v>0.7668660671915855</v>
+        <v>0.7669195448193253</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2331339328084145</v>
+        <v>0.2330804551806748</v>
       </c>
       <c r="J20" t="n">
-        <v>69095.68500404894</v>
+        <v>69180.5810800559</v>
       </c>
       <c r="K20" t="n">
-        <v>0.29838</v>
+        <v>0.29823</v>
       </c>
       <c r="L20" t="n">
-        <v>20616.77049150812</v>
+        <v>20631.72469550507</v>
       </c>
     </row>
     <row r="21">
@@ -1437,22 +1437,22 @@
         <v>195196.3</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2973925934213955</v>
+        <v>0.2975778546712803</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5052169532111203</v>
+        <v>0.5052447552447552</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4947830467888799</v>
+        <v>0.4947552447552448</v>
       </c>
       <c r="J21" t="n">
-        <v>29327.81073060796</v>
+        <v>29347.69545454545</v>
       </c>
       <c r="K21" t="n">
         <v>0.24845</v>
       </c>
       <c r="L21" t="n">
-        <v>7286.494576019548</v>
+        <v>7291.434935681818</v>
       </c>
     </row>
     <row r="22">
@@ -1485,22 +1485,22 @@
         <v>1571731.95</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1759119121493037</v>
+        <v>0.1759671885475411</v>
       </c>
       <c r="H22" t="n">
-        <v>0.688825512573166</v>
+        <v>0.6887681651500747</v>
       </c>
       <c r="I22" t="n">
-        <v>0.311174487426834</v>
+        <v>0.3112318348499253</v>
       </c>
       <c r="J22" t="n">
-        <v>190450.8674019115</v>
+        <v>190494.8515795193</v>
       </c>
       <c r="K22" t="n">
-        <v>0.27713</v>
+        <v>0.2772</v>
       </c>
       <c r="L22" t="n">
-        <v>52779.64888309172</v>
+        <v>52805.17285784274</v>
       </c>
     </row>
     <row r="23">
@@ -1677,22 +1677,22 @@
         <v>1926394.82</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4239680328324155</v>
+        <v>0.4236671001300389</v>
       </c>
       <c r="H26" t="n">
-        <v>0.3693813041983938</v>
+        <v>0.3691436251920123</v>
       </c>
       <c r="I26" t="n">
-        <v>0.6306186958016061</v>
+        <v>0.6308563748079877</v>
       </c>
       <c r="J26" t="n">
-        <v>301684.7269366636</v>
+        <v>301276.6092338709</v>
       </c>
       <c r="K26" t="n">
         <v>0.17666</v>
       </c>
       <c r="L26" t="n">
-        <v>53295.62386063099</v>
+        <v>53223.52578725564</v>
       </c>
     </row>
     <row r="27">
@@ -1725,22 +1725,22 @@
         <v>3080771.83</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2812363579887247</v>
+        <v>0.2813728995352163</v>
       </c>
       <c r="H27" t="n">
-        <v>0.5040213385048934</v>
+        <v>0.50390343502282</v>
       </c>
       <c r="I27" t="n">
-        <v>0.4959786614951066</v>
+        <v>0.49609656497718</v>
       </c>
       <c r="J27" t="n">
-        <v>436696.7130439365</v>
+        <v>436806.5271817199</v>
       </c>
       <c r="K27" t="n">
-        <v>0.33543</v>
+        <v>0.33525</v>
       </c>
       <c r="L27" t="n">
-        <v>146481.1784563276</v>
+        <v>146439.3882376716</v>
       </c>
     </row>
     <row r="28">
@@ -1773,22 +1773,22 @@
         <v>14323829.79</v>
       </c>
       <c r="G28" t="n">
-        <v>0.3070956953009927</v>
+        <v>0.3071689626089402</v>
       </c>
       <c r="H28" t="n">
-        <v>0.4592587409696035</v>
+        <v>0.4593589379342408</v>
       </c>
       <c r="I28" t="n">
-        <v>0.5407412590303965</v>
+        <v>0.5406410620657592</v>
       </c>
       <c r="J28" t="n">
-        <v>2020181.135424502</v>
+        <v>2021103.963188522</v>
       </c>
       <c r="K28" t="n">
-        <v>0.22265</v>
+        <v>0.2226</v>
       </c>
       <c r="L28" t="n">
-        <v>449793.3298022653</v>
+        <v>449897.742205765</v>
       </c>
     </row>
     <row r="29">
@@ -1821,22 +1821,22 @@
         <v>9331470.23</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2429725261862178</v>
+        <v>0.2430788590604027</v>
       </c>
       <c r="H29" t="n">
-        <v>0.5212841313177365</v>
+        <v>0.521320795976383</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4787158686822635</v>
+        <v>0.4786792040236169</v>
       </c>
       <c r="J29" t="n">
-        <v>1181902.764548035</v>
+        <v>1182503.170410015</v>
       </c>
       <c r="K29" t="n">
-        <v>0.2296</v>
+        <v>0.22958</v>
       </c>
       <c r="L29" t="n">
-        <v>271364.8747402289</v>
+        <v>271479.0778627313</v>
       </c>
     </row>
     <row r="30">
@@ -1869,22 +1869,22 @@
         <v>16776682.44</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3568923544120797</v>
+        <v>0.3568773234200743</v>
       </c>
       <c r="H30" t="n">
-        <v>0.6218883567573678</v>
+        <v>0.6215871085436303</v>
       </c>
       <c r="I30" t="n">
-        <v>0.3781116432426323</v>
+        <v>0.3784128914563697</v>
       </c>
       <c r="J30" t="n">
-        <v>3723537.689904476</v>
+        <v>3721577.229621161</v>
       </c>
       <c r="K30" t="n">
-        <v>0.28211</v>
+        <v>0.2819</v>
       </c>
       <c r="L30" t="n">
-        <v>1050447.217698952</v>
+        <v>1049112.621030205</v>
       </c>
     </row>
     <row r="31">
@@ -1917,22 +1917,22 @@
         <v>100431830.88</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2309686236228748</v>
+        <v>0.2309122807017544</v>
       </c>
       <c r="H31" t="n">
-        <v>0.579043046068892</v>
+        <v>0.5790152677183751</v>
       </c>
       <c r="I31" t="n">
-        <v>0.420956953931108</v>
+        <v>0.4209847322816249</v>
       </c>
       <c r="J31" t="n">
-        <v>13431830.93361233</v>
+        <v>13427910.14132605</v>
       </c>
       <c r="K31" t="n">
-        <v>0.26122</v>
+        <v>0.26106</v>
       </c>
       <c r="L31" t="n">
-        <v>3508662.876478213</v>
+        <v>3505490.221494578</v>
       </c>
     </row>
     <row r="32">
@@ -1965,22 +1965,22 @@
         <v>2105686.61</v>
       </c>
       <c r="G32" t="n">
-        <v>0.3813090645253667</v>
+        <v>0.3814881104576834</v>
       </c>
       <c r="H32" t="n">
-        <v>0.6583766986351296</v>
+        <v>0.6585283717797609</v>
       </c>
       <c r="I32" t="n">
-        <v>0.3416233013648704</v>
+        <v>0.3414716282202391</v>
       </c>
       <c r="J32" t="n">
-        <v>528622.1014547687</v>
+        <v>528992.1572857383</v>
       </c>
       <c r="K32" t="n">
-        <v>0.29706</v>
+        <v>0.29691</v>
       </c>
       <c r="L32" t="n">
-        <v>157032.4814581536</v>
+        <v>157063.0614197086</v>
       </c>
     </row>
     <row r="33">
@@ -2013,22 +2013,22 @@
         <v>649488.1</v>
       </c>
       <c r="G33" t="n">
-        <v>0.4166458008933818</v>
+        <v>0.4169986719787517</v>
       </c>
       <c r="H33" t="n">
-        <v>0.8220613603458209</v>
+        <v>0.8222768222768222</v>
       </c>
       <c r="I33" t="n">
-        <v>0.1779386396541792</v>
+        <v>0.1777231777231777</v>
       </c>
       <c r="J33" t="n">
-        <v>222455.1389550545</v>
+        <v>222701.8983346983</v>
       </c>
       <c r="K33" t="n">
-        <v>0.30078</v>
+        <v>0.30082</v>
       </c>
       <c r="L33" t="n">
-        <v>66910.05669490127</v>
+        <v>66993.18505704394</v>
       </c>
     </row>
     <row r="34">
@@ -2061,22 +2061,22 @@
         <v>8629717.699999999</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2618408232775203</v>
+        <v>0.2618320396783142</v>
       </c>
       <c r="H34" t="n">
-        <v>0.7329875945943517</v>
+        <v>0.7330033274452614</v>
       </c>
       <c r="I34" t="n">
-        <v>0.2670124054056482</v>
+        <v>0.2669966725547385</v>
       </c>
       <c r="J34" t="n">
-        <v>1656267.84842442</v>
+        <v>1656247.836930534</v>
       </c>
       <c r="K34" t="n">
-        <v>0.2356</v>
+        <v>0.23565</v>
       </c>
       <c r="L34" t="n">
-        <v>390216.7050887934</v>
+        <v>390294.8027726804</v>
       </c>
     </row>
     <row r="35">
@@ -2109,22 +2109,22 @@
         <v>1824620.78</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1669487236397618</v>
+        <v>0.1666980244590781</v>
       </c>
       <c r="H35" t="n">
-        <v>0.6417100233381162</v>
+        <v>0.6414433985035</v>
       </c>
       <c r="I35" t="n">
-        <v>0.3582899766618837</v>
+        <v>0.3585566014965001</v>
       </c>
       <c r="J35" t="n">
-        <v>195476.4947003627</v>
+        <v>195101.8598937968</v>
       </c>
       <c r="K35" t="n">
-        <v>0.15879</v>
+        <v>0.15894</v>
       </c>
       <c r="L35" t="n">
-        <v>31039.71259347059</v>
+        <v>31009.48961152006</v>
       </c>
     </row>
     <row r="36">
@@ -2157,22 +2157,22 @@
         <v>1023666.14</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2138267668683471</v>
+        <v>0.2134615384615385</v>
       </c>
       <c r="H36" t="n">
-        <v>0.6714490306160801</v>
+        <v>0.6711120671112066</v>
       </c>
       <c r="I36" t="n">
-        <v>0.32855096938392</v>
+        <v>0.3288879328887933</v>
       </c>
       <c r="J36" t="n">
-        <v>146971.6124008939</v>
+        <v>146646.9454162185</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.03626</v>
+        <v>-0.0364</v>
       </c>
       <c r="L36" t="n">
-        <v>-5329.190665656413</v>
+        <v>-5337.948813150355</v>
       </c>
     </row>
     <row r="37">
@@ -2205,22 +2205,22 @@
         <v>13752907.35</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3072696127282017</v>
+        <v>0.3072381199015926</v>
       </c>
       <c r="H37" t="n">
-        <v>0.6183103802867242</v>
+        <v>0.6182356708293308</v>
       </c>
       <c r="I37" t="n">
-        <v>0.3816896197132758</v>
+        <v>0.3817643291706692</v>
       </c>
       <c r="J37" t="n">
-        <v>2612887.239163187</v>
+        <v>2612303.759212296</v>
       </c>
       <c r="K37" t="n">
-        <v>0.29747</v>
+        <v>0.29758</v>
       </c>
       <c r="L37" t="n">
-        <v>777255.5670338732</v>
+        <v>777369.3526663949</v>
       </c>
     </row>
     <row r="38">
@@ -2253,22 +2253,22 @@
         <v>6756407.98</v>
       </c>
       <c r="G38" t="n">
-        <v>0.3500742665441987</v>
+        <v>0.3500812567713976</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4766405972679123</v>
+        <v>0.4764793185777893</v>
       </c>
       <c r="I38" t="n">
-        <v>0.5233594027320877</v>
+        <v>0.5235206814222108</v>
       </c>
       <c r="J38" t="n">
-        <v>1127371.583610462</v>
+        <v>1127012.623623928</v>
       </c>
       <c r="K38" t="n">
-        <v>0.18734</v>
+        <v>0.18759</v>
       </c>
       <c r="L38" t="n">
-        <v>211201.792473584</v>
+        <v>211416.2980656126</v>
       </c>
     </row>
     <row r="39">
@@ -2301,22 +2301,22 @@
         <v>4371378.46</v>
       </c>
       <c r="G39" t="n">
-        <v>0.158885538857334</v>
+        <v>0.1588674793550924</v>
       </c>
       <c r="H39" t="n">
-        <v>0.5069737465612842</v>
+        <v>0.5069776714513556</v>
       </c>
       <c r="I39" t="n">
-        <v>0.4930262534387156</v>
+        <v>0.4930223285486444</v>
       </c>
       <c r="J39" t="n">
-        <v>352118.0185434487</v>
+        <v>352080.7212599681</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.02609</v>
+        <v>-0.02591</v>
       </c>
       <c r="L39" t="n">
-        <v>-9186.759103798577</v>
+        <v>-9122.411487845773</v>
       </c>
     </row>
     <row r="40">
@@ -2349,22 +2349,22 @@
         <v>28840228.56</v>
       </c>
       <c r="G40" t="n">
-        <v>0.3373023114697232</v>
+        <v>0.3372216910258161</v>
       </c>
       <c r="H40" t="n">
-        <v>0.5530107755759429</v>
+        <v>0.5529790319656778</v>
       </c>
       <c r="I40" t="n">
-        <v>0.446989224424057</v>
+        <v>0.4470209680343222</v>
       </c>
       <c r="J40" t="n">
-        <v>5379620.116865508</v>
+        <v>5378025.580769834</v>
       </c>
       <c r="K40" t="n">
-        <v>0.14839</v>
+        <v>0.14835</v>
       </c>
       <c r="L40" t="n">
-        <v>798281.8291416727</v>
+        <v>797830.094907205</v>
       </c>
     </row>
     <row r="41">
@@ -2397,22 +2397,22 @@
         <v>182826.61</v>
       </c>
       <c r="G41" t="n">
-        <v>0.3939040715047885</v>
+        <v>0.3938213914849428</v>
       </c>
       <c r="H41" t="n">
-        <v>0.6260798213483735</v>
+        <v>0.6262396358315722</v>
       </c>
       <c r="I41" t="n">
-        <v>0.3739201786516266</v>
+        <v>0.3737603641684279</v>
       </c>
       <c r="J41" t="n">
-        <v>45087.85585845276</v>
+        <v>45089.8987758088</v>
       </c>
       <c r="K41" t="n">
-        <v>0.13677</v>
+        <v>0.13666</v>
       </c>
       <c r="L41" t="n">
-        <v>6166.666045760584</v>
+        <v>6161.985566702031</v>
       </c>
     </row>
     <row r="42">
@@ -2445,22 +2445,22 @@
         <v>161241.61</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3209462412295507</v>
+        <v>0.3211405529953917</v>
       </c>
       <c r="H42" t="n">
-        <v>0.6393420183685029</v>
+        <v>0.6394106813996316</v>
       </c>
       <c r="I42" t="n">
-        <v>0.3606579816314971</v>
+        <v>0.3605893186003683</v>
       </c>
       <c r="J42" t="n">
-        <v>33085.87826578289</v>
+        <v>33109.46503683241</v>
       </c>
       <c r="K42" t="n">
-        <v>0.1091</v>
+        <v>0.10893</v>
       </c>
       <c r="L42" t="n">
-        <v>3609.669318796913</v>
+        <v>3606.614026462154</v>
       </c>
     </row>
     <row r="43">
@@ -2493,22 +2493,22 @@
         <v>1272405.28</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3429481991674722</v>
+        <v>0.3429529017463397</v>
       </c>
       <c r="H43" t="n">
-        <v>0.661771212098159</v>
+        <v>0.661864288049316</v>
       </c>
       <c r="I43" t="n">
-        <v>0.3382287879018411</v>
+        <v>0.3381357119506842</v>
       </c>
       <c r="J43" t="n">
-        <v>288776.5078236383</v>
+        <v>288821.0836146267</v>
       </c>
       <c r="K43" t="n">
-        <v>0.20769</v>
+        <v>0.20768</v>
       </c>
       <c r="L43" t="n">
-        <v>59975.99290989144</v>
+        <v>59982.36264508567</v>
       </c>
     </row>
     <row r="44">
@@ -2541,22 +2541,22 @@
         <v>29866970.79</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03182662891586516</v>
+        <v>0.08590455049944506</v>
       </c>
       <c r="H44" t="n">
-        <v>0.5991911730892815</v>
+        <v>0.6053073563990594</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4008088269107185</v>
+        <v>0.3946926436009406</v>
       </c>
       <c r="J44" t="n">
-        <v>569570.1551552957</v>
+        <v>1553042.350786698</v>
       </c>
       <c r="K44" t="n">
-        <v>0.36909</v>
+        <v>0.28312</v>
       </c>
       <c r="L44" t="n">
-        <v>210222.6485662681</v>
+        <v>439697.3503547299</v>
       </c>
     </row>
     <row r="45">
@@ -2589,22 +2589,22 @@
         <v>6616402.24</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03128389774739205</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.6208083501830146</v>
+        <v>0.6206367472190257</v>
       </c>
       <c r="I45" t="n">
-        <v>0.3791916498169853</v>
+        <v>0.3793632527809743</v>
       </c>
       <c r="J45" t="n">
-        <v>128499.1655606949</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0.3068</v>
+        <v>0.24131</v>
       </c>
       <c r="L45" t="n">
-        <v>39423.5439940212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2637,22 +2637,22 @@
         <v>12266920.62</v>
       </c>
       <c r="G46" t="n">
-        <v>0.09139131296595578</v>
+        <v>0.06331798898817584</v>
       </c>
       <c r="H46" t="n">
-        <v>0.6249202484967391</v>
+        <v>0.6606243105453027</v>
       </c>
       <c r="I46" t="n">
-        <v>0.3750797515032608</v>
+        <v>0.3393756894546972</v>
       </c>
       <c r="J46" t="n">
-        <v>700591.8298330315</v>
+        <v>513117.9639802033</v>
       </c>
       <c r="K46" t="n">
-        <v>0.42417</v>
+        <v>0.39213</v>
       </c>
       <c r="L46" t="n">
-        <v>297170.036460277</v>
+        <v>201208.9472155571</v>
       </c>
     </row>
     <row r="47">
@@ -2685,22 +2685,22 @@
         <v>5687249.15</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6997900193944561</v>
+        <v>0.9427758457160924</v>
       </c>
       <c r="H47" t="n">
-        <v>0.4987777003295503</v>
+        <v>0.4718782634641205</v>
       </c>
       <c r="I47" t="n">
-        <v>0.5012222996704496</v>
+        <v>0.5281217365358795</v>
       </c>
       <c r="J47" t="n">
-        <v>1985075.490241494</v>
+        <v>2530117.404938088</v>
       </c>
       <c r="K47" t="n">
-        <v>0.33303</v>
+        <v>0.09743</v>
       </c>
       <c r="L47" t="n">
-        <v>661089.6905151247</v>
+        <v>246509.3387631179</v>
       </c>
     </row>
     <row r="48">
@@ -2733,22 +2733,22 @@
         <v>2040027.59</v>
       </c>
       <c r="G48" t="n">
-        <v>0.3598100833264799</v>
+        <v>0.5364384007816952</v>
       </c>
       <c r="H48" t="n">
-        <v>0.517520489032216</v>
+        <v>0.4425904569698717</v>
       </c>
       <c r="I48" t="n">
-        <v>0.4824795109677841</v>
+        <v>0.5574095430301284</v>
       </c>
       <c r="J48" t="n">
-        <v>379871.6816837591</v>
+        <v>484348.485041084</v>
       </c>
       <c r="K48" t="n">
-        <v>0.25049</v>
+        <v>0.38063</v>
       </c>
       <c r="L48" t="n">
-        <v>95154.05754496483</v>
+        <v>184357.5638611878</v>
       </c>
     </row>
     <row r="49">
@@ -2781,22 +2781,22 @@
         <v>12517690.9</v>
       </c>
       <c r="G49" t="n">
-        <v>0.6854915749443864</v>
+        <v>0.5996917931735468</v>
       </c>
       <c r="H49" t="n">
-        <v>0.5075471399388203</v>
+        <v>0.5276278458238184</v>
       </c>
       <c r="I49" t="n">
-        <v>0.4924528600611799</v>
+        <v>0.4723721541761816</v>
       </c>
       <c r="J49" t="n">
-        <v>4355146.109277415</v>
+        <v>3960773.762386687</v>
       </c>
       <c r="K49" t="n">
-        <v>0.27478</v>
+        <v>0.26361</v>
       </c>
       <c r="L49" t="n">
-        <v>1196707.047907248</v>
+        <v>1044099.571502755</v>
       </c>
     </row>
     <row r="50">
@@ -2829,22 +2829,22 @@
         <v>428073.54</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2737757659150239</v>
+        <v>0.2741116751269035</v>
       </c>
       <c r="H50" t="n">
-        <v>0.7668660671915855</v>
+        <v>0.7669195448193253</v>
       </c>
       <c r="I50" t="n">
-        <v>0.2331339328084145</v>
+        <v>0.2330804551806748</v>
       </c>
       <c r="J50" t="n">
-        <v>89873.75929186062</v>
+        <v>89990.30497504493</v>
       </c>
       <c r="K50" t="n">
-        <v>0.29838</v>
+        <v>0.29823</v>
       </c>
       <c r="L50" t="n">
-        <v>26816.53229750537</v>
+        <v>26837.80865270765</v>
       </c>
     </row>
     <row r="51">
@@ -2877,22 +2877,22 @@
         <v>195196.3</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4398146099394824</v>
+        <v>0.4398788927335641</v>
       </c>
       <c r="H51" t="n">
-        <v>0.5052169532111203</v>
+        <v>0.5052447552447552</v>
       </c>
       <c r="I51" t="n">
-        <v>0.4947830467888799</v>
+        <v>0.4947552447552448</v>
       </c>
       <c r="J51" t="n">
-        <v>43372.9686690083</v>
+        <v>43381.69517045454</v>
       </c>
       <c r="K51" t="n">
         <v>0.24845</v>
       </c>
       <c r="L51" t="n">
-        <v>10776.01406581511</v>
+        <v>10778.18216509943</v>
       </c>
     </row>
     <row r="52">
@@ -2925,22 +2925,22 @@
         <v>1571731.95</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2446840212019485</v>
+        <v>0.2447450408171314</v>
       </c>
       <c r="H52" t="n">
-        <v>0.688825512573166</v>
+        <v>0.6887681651500747</v>
       </c>
       <c r="I52" t="n">
-        <v>0.311174487426834</v>
+        <v>0.3112318348499253</v>
       </c>
       <c r="J52" t="n">
-        <v>264906.9270405475</v>
+        <v>264950.9298302322</v>
       </c>
       <c r="K52" t="n">
-        <v>0.27713</v>
+        <v>0.2772</v>
       </c>
       <c r="L52" t="n">
-        <v>73413.65669074694</v>
+        <v>73444.39774894038</v>
       </c>
     </row>
     <row r="53">
@@ -3117,22 +3117,22 @@
         <v>1926394.82</v>
       </c>
       <c r="G56" t="n">
-        <v>0.4239680328324155</v>
+        <v>0.4236671001300389</v>
       </c>
       <c r="H56" t="n">
-        <v>0.3693813041983938</v>
+        <v>0.3691436251920123</v>
       </c>
       <c r="I56" t="n">
-        <v>0.6306186958016061</v>
+        <v>0.6308563748079877</v>
       </c>
       <c r="J56" t="n">
-        <v>301684.7269366636</v>
+        <v>301276.6092338709</v>
       </c>
       <c r="K56" t="n">
         <v>0.17666</v>
       </c>
       <c r="L56" t="n">
-        <v>53295.62386063099</v>
+        <v>53223.52578725564</v>
       </c>
     </row>
     <row r="57">
@@ -3165,22 +3165,22 @@
         <v>3080771.83</v>
       </c>
       <c r="G57" t="n">
-        <v>0.3237207555714538</v>
+        <v>0.3237993087832202</v>
       </c>
       <c r="H57" t="n">
-        <v>0.5040213385048934</v>
+        <v>0.50390343502282</v>
       </c>
       <c r="I57" t="n">
-        <v>0.4959786614951066</v>
+        <v>0.49609656497718</v>
       </c>
       <c r="J57" t="n">
-        <v>502665.4125133465</v>
+        <v>502669.7731269517</v>
       </c>
       <c r="K57" t="n">
-        <v>0.33543</v>
+        <v>0.33525</v>
       </c>
       <c r="L57" t="n">
-        <v>168609.0593193518</v>
+        <v>168520.0414408105</v>
       </c>
     </row>
     <row r="58">
@@ -3213,22 +3213,22 @@
         <v>14323829.79</v>
       </c>
       <c r="G58" t="n">
-        <v>0.4013575319479155</v>
+        <v>0.401433792521788</v>
       </c>
       <c r="H58" t="n">
-        <v>0.4592587409696035</v>
+        <v>0.4593589379342408</v>
       </c>
       <c r="I58" t="n">
-        <v>0.5407412590303965</v>
+        <v>0.5406410620657592</v>
       </c>
       <c r="J58" t="n">
-        <v>2640267.926279508</v>
+        <v>2641345.734062686</v>
       </c>
       <c r="K58" t="n">
-        <v>0.22265</v>
+        <v>0.2226</v>
       </c>
       <c r="L58" t="n">
-        <v>587855.6537861325</v>
+        <v>587963.5604023538</v>
       </c>
     </row>
     <row r="59">
@@ -3261,22 +3261,22 @@
         <v>9331470.23</v>
       </c>
       <c r="G59" t="n">
-        <v>0.3075943457027895</v>
+        <v>0.3078859060402685</v>
       </c>
       <c r="H59" t="n">
-        <v>0.5212841313177365</v>
+        <v>0.521320795976383</v>
       </c>
       <c r="I59" t="n">
-        <v>0.4787158686822635</v>
+        <v>0.4786792040236169</v>
       </c>
       <c r="J59" t="n">
-        <v>1496245.741244191</v>
+        <v>1497769.330596982</v>
       </c>
       <c r="K59" t="n">
-        <v>0.2296</v>
+        <v>0.22958</v>
       </c>
       <c r="L59" t="n">
-        <v>343538.0221896663</v>
+        <v>343857.8829184552</v>
       </c>
     </row>
     <row r="60">
@@ -3309,22 +3309,22 @@
         <v>16776682.44</v>
       </c>
       <c r="G60" t="n">
-        <v>0.4174880425825349</v>
+        <v>0.4174329876736451</v>
       </c>
       <c r="H60" t="n">
-        <v>0.6218883567573678</v>
+        <v>0.6215871085436303</v>
       </c>
       <c r="I60" t="n">
-        <v>0.3781116432426323</v>
+        <v>0.3784128914563697</v>
       </c>
       <c r="J60" t="n">
-        <v>4355746.04617503</v>
+        <v>4353061.962388569</v>
       </c>
       <c r="K60" t="n">
-        <v>0.28211</v>
+        <v>0.2819</v>
       </c>
       <c r="L60" t="n">
-        <v>1228799.517086438</v>
+        <v>1227128.167197337</v>
       </c>
     </row>
     <row r="61">
@@ -3357,22 +3357,22 @@
         <v>100431830.88</v>
       </c>
       <c r="G61" t="n">
-        <v>0.3029107275525694</v>
+        <v>0.3028070175438596</v>
       </c>
       <c r="H61" t="n">
-        <v>0.579043046068892</v>
+        <v>0.5790152677183751</v>
       </c>
       <c r="I61" t="n">
-        <v>0.420956953931108</v>
+        <v>0.4209847322816249</v>
       </c>
       <c r="J61" t="n">
-        <v>17615577.46088879</v>
+        <v>17608701.49212031</v>
       </c>
       <c r="K61" t="n">
-        <v>0.26122</v>
+        <v>0.26106</v>
       </c>
       <c r="L61" t="n">
-        <v>4601541.14433337</v>
+        <v>4596927.611532928</v>
       </c>
     </row>
     <row r="62">
@@ -3405,22 +3405,22 @@
         <v>2105686.61</v>
       </c>
       <c r="G62" t="n">
-        <v>0.5371140634469155</v>
+        <v>0.5372027614420865</v>
       </c>
       <c r="H62" t="n">
-        <v>0.6583766986351296</v>
+        <v>0.6585283717797609</v>
       </c>
       <c r="I62" t="n">
-        <v>0.3416233013648704</v>
+        <v>0.3414716282202391</v>
       </c>
       <c r="J62" t="n">
-        <v>744620.0244246485</v>
+        <v>744914.5592877588</v>
       </c>
       <c r="K62" t="n">
-        <v>0.29706</v>
+        <v>0.29691</v>
       </c>
       <c r="L62" t="n">
-        <v>221196.8244555861</v>
+        <v>221172.5817981285</v>
       </c>
     </row>
     <row r="63">
@@ -3453,22 +3453,22 @@
         <v>649488.1</v>
       </c>
       <c r="G63" t="n">
-        <v>0.5178381847405126</v>
+        <v>0.5182602921646746</v>
       </c>
       <c r="H63" t="n">
-        <v>0.8220613603458209</v>
+        <v>0.8222768222768222</v>
       </c>
       <c r="I63" t="n">
-        <v>0.1779386396541792</v>
+        <v>0.1777231777231777</v>
       </c>
       <c r="J63" t="n">
-        <v>276483.6825324494</v>
+        <v>276781.579060879</v>
       </c>
       <c r="K63" t="n">
-        <v>0.30078</v>
+        <v>0.30082</v>
       </c>
       <c r="L63" t="n">
-        <v>83160.76203211011</v>
+        <v>83261.43461309362</v>
       </c>
     </row>
     <row r="64">
@@ -3501,22 +3501,22 @@
         <v>8629717.699999999</v>
       </c>
       <c r="G64" t="n">
-        <v>0.3996838855585603</v>
+        <v>0.3996973687897554</v>
       </c>
       <c r="H64" t="n">
-        <v>0.7329875945943517</v>
+        <v>0.7330033274452614</v>
       </c>
       <c r="I64" t="n">
-        <v>0.2670124054056482</v>
+        <v>0.2669966725547385</v>
       </c>
       <c r="J64" t="n">
-        <v>2528190.833261949</v>
+        <v>2528330.388054061</v>
       </c>
       <c r="K64" t="n">
-        <v>0.2356</v>
+        <v>0.23565</v>
       </c>
       <c r="L64" t="n">
-        <v>595641.7603165152</v>
+        <v>595801.0559449394</v>
       </c>
     </row>
     <row r="65">
@@ -3549,22 +3549,22 @@
         <v>1824620.78</v>
       </c>
       <c r="G65" t="n">
-        <v>0.4500684578945167</v>
+        <v>0.4500470366886171</v>
       </c>
       <c r="H65" t="n">
-        <v>0.6417100233381162</v>
+        <v>0.6414433985035</v>
       </c>
       <c r="I65" t="n">
-        <v>0.3582899766618837</v>
+        <v>0.3585566014965001</v>
       </c>
       <c r="J65" t="n">
-        <v>526975.0052971619</v>
+        <v>526730.9806613566</v>
       </c>
       <c r="K65" t="n">
-        <v>0.15879</v>
+        <v>0.15894</v>
       </c>
       <c r="L65" t="n">
-        <v>83678.36109113632</v>
+        <v>83718.62206631602</v>
       </c>
     </row>
     <row r="66">
@@ -3597,22 +3597,22 @@
         <v>1023666.14</v>
       </c>
       <c r="G66" t="n">
-        <v>0.3163414722300881</v>
+        <v>0.316025641025641</v>
       </c>
       <c r="H66" t="n">
-        <v>0.6714490306160801</v>
+        <v>0.6711120671112066</v>
       </c>
       <c r="I66" t="n">
-        <v>0.32855096938392</v>
+        <v>0.3288879328887933</v>
       </c>
       <c r="J66" t="n">
-        <v>217434.0328100946</v>
+        <v>217107.940210798</v>
       </c>
       <c r="K66" t="n">
-        <v>-0.03626</v>
+        <v>-0.0364</v>
       </c>
       <c r="L66" t="n">
-        <v>-7884.158029694032</v>
+        <v>-7902.729023673048</v>
       </c>
     </row>
     <row r="67">
@@ -3645,22 +3645,22 @@
         <v>13752907.35</v>
       </c>
       <c r="G67" t="n">
-        <v>0.4117962149347835</v>
+        <v>0.411757089214036</v>
       </c>
       <c r="H67" t="n">
-        <v>0.6183103802867242</v>
+        <v>0.6182356708293308</v>
       </c>
       <c r="I67" t="n">
-        <v>0.3816896197132758</v>
+        <v>0.3817643291706692</v>
       </c>
       <c r="J67" t="n">
-        <v>3501736.034309916</v>
+        <v>3500980.257204611</v>
       </c>
       <c r="K67" t="n">
-        <v>0.29747</v>
+        <v>0.29758</v>
       </c>
       <c r="L67" t="n">
-        <v>1041661.418126171</v>
+        <v>1041821.704938948</v>
       </c>
     </row>
     <row r="68">
@@ -3693,22 +3693,22 @@
         <v>6756407.98</v>
       </c>
       <c r="G68" t="n">
-        <v>0.603693153083033</v>
+        <v>0.6037378114842903</v>
       </c>
       <c r="H68" t="n">
-        <v>0.4766405972679123</v>
+        <v>0.4764793185777893</v>
       </c>
       <c r="I68" t="n">
-        <v>0.5233594027320877</v>
+        <v>0.5235206814222108</v>
       </c>
       <c r="J68" t="n">
-        <v>1944120.351160071</v>
+        <v>1943606.29636962</v>
       </c>
       <c r="K68" t="n">
-        <v>0.18734</v>
+        <v>0.18759</v>
       </c>
       <c r="L68" t="n">
-        <v>364211.5065863277</v>
+        <v>364601.105135977</v>
       </c>
     </row>
     <row r="69">
@@ -3741,22 +3741,22 @@
         <v>4371378.46</v>
       </c>
       <c r="G69" t="n">
-        <v>0.4225099619870852</v>
+        <v>0.4225324419976406</v>
       </c>
       <c r="H69" t="n">
-        <v>0.5069737465612842</v>
+        <v>0.5069776714513556</v>
       </c>
       <c r="I69" t="n">
-        <v>0.4930262534387156</v>
+        <v>0.4930223285486444</v>
       </c>
       <c r="J69" t="n">
-        <v>936355.6412981447</v>
+        <v>936412.7103807814</v>
       </c>
       <c r="K69" t="n">
-        <v>-0.02609</v>
+        <v>-0.02591</v>
       </c>
       <c r="L69" t="n">
-        <v>-24429.51868146859</v>
+        <v>-24262.45332596605</v>
       </c>
     </row>
     <row r="70">
@@ -3789,22 +3789,22 @@
         <v>28840228.56</v>
       </c>
       <c r="G70" t="n">
-        <v>0.5664103019483524</v>
+        <v>0.5664799890725311</v>
       </c>
       <c r="H70" t="n">
-        <v>0.5530107755759429</v>
+        <v>0.5529790319656778</v>
       </c>
       <c r="I70" t="n">
-        <v>0.446989224424057</v>
+        <v>0.4470209680343222</v>
       </c>
       <c r="J70" t="n">
-        <v>9033653.642882708</v>
+        <v>9034246.471390417</v>
       </c>
       <c r="K70" t="n">
-        <v>0.14839</v>
+        <v>0.14835</v>
       </c>
       <c r="L70" t="n">
-        <v>1340503.864067365</v>
+        <v>1340230.464030768</v>
       </c>
     </row>
     <row r="71">
@@ -3837,22 +3837,22 @@
         <v>182826.61</v>
       </c>
       <c r="G71" t="n">
-        <v>0.5372840238676843</v>
+        <v>0.5373831775700934</v>
       </c>
       <c r="H71" t="n">
-        <v>0.6260798213483735</v>
+        <v>0.6262396358315722</v>
       </c>
       <c r="I71" t="n">
-        <v>0.3739201786516266</v>
+        <v>0.3737603641684279</v>
       </c>
       <c r="J71" t="n">
-        <v>61499.70608491451</v>
+        <v>61526.75706389204</v>
       </c>
       <c r="K71" t="n">
-        <v>0.13677</v>
+        <v>0.13666</v>
       </c>
       <c r="L71" t="n">
-        <v>8411.314801233757</v>
+        <v>8408.246620351487</v>
       </c>
     </row>
     <row r="72">
@@ -3885,22 +3885,22 @@
         <v>161241.61</v>
       </c>
       <c r="G72" t="n">
-        <v>0.482339385023327</v>
+        <v>0.4824308755760369</v>
       </c>
       <c r="H72" t="n">
-        <v>0.6393420183685029</v>
+        <v>0.6394106813996316</v>
       </c>
       <c r="I72" t="n">
-        <v>0.3606579816314971</v>
+        <v>0.3605893186003683</v>
       </c>
       <c r="J72" t="n">
-        <v>49723.6612416354</v>
+        <v>49738.43402394106</v>
       </c>
       <c r="K72" t="n">
-        <v>0.1091</v>
+        <v>0.10893</v>
       </c>
       <c r="L72" t="n">
-        <v>5424.851441462421</v>
+        <v>5418.0076182279</v>
       </c>
     </row>
     <row r="73">
@@ -3933,22 +3933,22 @@
         <v>1272405.28</v>
       </c>
       <c r="G73" t="n">
-        <v>0.6075730930353377</v>
+        <v>0.6075498324219438</v>
       </c>
       <c r="H73" t="n">
-        <v>0.661771212098159</v>
+        <v>0.661864288049316</v>
       </c>
       <c r="I73" t="n">
-        <v>0.3382287879018411</v>
+        <v>0.3381357119506842</v>
       </c>
       <c r="J73" t="n">
-        <v>511601.5668846602</v>
+        <v>511653.9328183814</v>
       </c>
       <c r="K73" t="n">
-        <v>0.20769</v>
+        <v>0.20768</v>
       </c>
       <c r="L73" t="n">
-        <v>106254.5294262751</v>
+        <v>106260.2887677214</v>
       </c>
     </row>
     <row r="74">
@@ -3981,22 +3981,22 @@
         <v>29866970.79</v>
       </c>
       <c r="G74" t="n">
-        <v>0.1002116672019956</v>
+        <v>0.179134295227525</v>
       </c>
       <c r="H74" t="n">
-        <v>0.5991911730892815</v>
+        <v>0.6053073563990594</v>
       </c>
       <c r="I74" t="n">
-        <v>0.4008088269107185</v>
+        <v>0.3946926436009406</v>
       </c>
       <c r="J74" t="n">
-        <v>1793390.528022874</v>
+        <v>3238514.669469936</v>
       </c>
       <c r="K74" t="n">
-        <v>0.36909</v>
+        <v>0.28312</v>
       </c>
       <c r="L74" t="n">
-        <v>661922.5099879625</v>
+        <v>916888.2732203283</v>
       </c>
     </row>
     <row r="75">
@@ -4029,22 +4029,22 @@
         <v>6616402.24</v>
       </c>
       <c r="G75" t="n">
-        <v>0.08333136382305685</v>
+        <v>0.01529666254635352</v>
       </c>
       <c r="H75" t="n">
-        <v>0.6208083501830146</v>
+        <v>0.6206367472190257</v>
       </c>
       <c r="I75" t="n">
-        <v>0.3791916498169853</v>
+        <v>0.3793632527809743</v>
       </c>
       <c r="J75" t="n">
-        <v>342285.0567650301</v>
+        <v>62813.9453164557</v>
       </c>
       <c r="K75" t="n">
-        <v>0.3068</v>
+        <v>0.24131</v>
       </c>
       <c r="L75" t="n">
-        <v>105013.0554155112</v>
+        <v>15157.63314431392</v>
       </c>
     </row>
     <row r="76">
@@ -4077,22 +4077,22 @@
         <v>12266920.62</v>
       </c>
       <c r="G76" t="n">
-        <v>0.1314140923154811</v>
+        <v>0.1506453651051539</v>
       </c>
       <c r="H76" t="n">
-        <v>0.6249202484967391</v>
+        <v>0.6606243105453027</v>
       </c>
       <c r="I76" t="n">
-        <v>0.3750797515032608</v>
+        <v>0.3393756894546972</v>
       </c>
       <c r="J76" t="n">
-        <v>1007400.33612873</v>
+        <v>1220803.82306908</v>
       </c>
       <c r="K76" t="n">
-        <v>0.42417</v>
+        <v>0.39213</v>
       </c>
       <c r="L76" t="n">
-        <v>427309.0005757235</v>
+        <v>478713.8031400781</v>
       </c>
     </row>
     <row r="77">
@@ -4125,22 +4125,22 @@
         <v>5687249.15</v>
       </c>
       <c r="G77" t="n">
-        <v>0.8568433399069856</v>
+        <v>0.9791337337970282</v>
       </c>
       <c r="H77" t="n">
-        <v>0.4987777003295503</v>
+        <v>0.4718782634641205</v>
       </c>
       <c r="I77" t="n">
-        <v>0.5012222996704496</v>
+        <v>0.5281217365358795</v>
       </c>
       <c r="J77" t="n">
-        <v>2430584.412303914</v>
+        <v>2627690.678435029</v>
       </c>
       <c r="K77" t="n">
-        <v>0.33303</v>
+        <v>0.09743</v>
       </c>
       <c r="L77" t="n">
-        <v>809457.5268295724</v>
+        <v>256015.9027999249</v>
       </c>
     </row>
     <row r="78">
@@ -4173,22 +4173,22 @@
         <v>2040027.59</v>
       </c>
       <c r="G78" t="n">
-        <v>0.6846617885768279</v>
+        <v>0.6805634720299649</v>
       </c>
       <c r="H78" t="n">
-        <v>0.517520489032216</v>
+        <v>0.4425904569698717</v>
       </c>
       <c r="I78" t="n">
-        <v>0.4824795109677841</v>
+        <v>0.5574095430301284</v>
       </c>
       <c r="J78" t="n">
-        <v>722835.8433059769</v>
+        <v>614478.5424974773</v>
       </c>
       <c r="K78" t="n">
-        <v>0.25049</v>
+        <v>0.38063</v>
       </c>
       <c r="L78" t="n">
-        <v>181063.1503897142</v>
+        <v>233888.9676308148</v>
       </c>
     </row>
     <row r="79">
@@ -4221,22 +4221,22 @@
         <v>12517690.9</v>
       </c>
       <c r="G79" t="n">
-        <v>0.7965578119107555</v>
+        <v>0.7363847995016232</v>
       </c>
       <c r="H79" t="n">
-        <v>0.5075471399388203</v>
+        <v>0.5276278458238184</v>
       </c>
       <c r="I79" t="n">
-        <v>0.4924528600611799</v>
+        <v>0.4723721541761816</v>
       </c>
       <c r="J79" t="n">
-        <v>5060785.255659935</v>
+        <v>4863587.639663346</v>
       </c>
       <c r="K79" t="n">
-        <v>0.27478</v>
+        <v>0.26361</v>
       </c>
       <c r="L79" t="n">
-        <v>1390602.572550237</v>
+        <v>1282090.337691655</v>
       </c>
     </row>
     <row r="80">
@@ -4269,22 +4269,22 @@
         <v>428073.54</v>
       </c>
       <c r="G80" t="n">
-        <v>0.4122993222034452</v>
+        <v>0.4125992450865547</v>
       </c>
       <c r="H80" t="n">
-        <v>0.7668660671915855</v>
+        <v>0.7669195448193253</v>
       </c>
       <c r="I80" t="n">
-        <v>0.2331339328084145</v>
+        <v>0.2330804551806748</v>
       </c>
       <c r="J80" t="n">
-        <v>135347.5897184086</v>
+        <v>135455.492293871</v>
       </c>
       <c r="K80" t="n">
-        <v>0.29838</v>
+        <v>0.29823</v>
       </c>
       <c r="L80" t="n">
-        <v>40385.01382017874</v>
+        <v>40396.89146680116</v>
       </c>
     </row>
     <row r="81">
@@ -4317,22 +4317,22 @@
         <v>195196.3</v>
       </c>
       <c r="G81" t="n">
-        <v>0.5359552311331012</v>
+        <v>0.5358996539792389</v>
       </c>
       <c r="H81" t="n">
-        <v>0.5052169532111203</v>
+        <v>0.5052447552447552</v>
       </c>
       <c r="I81" t="n">
-        <v>0.4947830467888799</v>
+        <v>0.4947552447552448</v>
       </c>
       <c r="J81" t="n">
-        <v>52854.01831268337</v>
+        <v>52851.44573863637</v>
       </c>
       <c r="K81" t="n">
         <v>0.24845</v>
       </c>
       <c r="L81" t="n">
-        <v>13131.58084978618</v>
+        <v>13130.94169376421</v>
       </c>
     </row>
     <row r="82">
@@ -4365,22 +4365,22 @@
         <v>1571731.95</v>
       </c>
       <c r="G82" t="n">
-        <v>0.3818527633365822</v>
+        <v>0.3817880664116418</v>
       </c>
       <c r="H82" t="n">
-        <v>0.688825512573166</v>
+        <v>0.6887681651500747</v>
       </c>
       <c r="I82" t="n">
-        <v>0.311174487426834</v>
+        <v>0.3112318348499253</v>
       </c>
       <c r="J82" t="n">
-        <v>413412.5376088511</v>
+        <v>413308.0811612114</v>
       </c>
       <c r="K82" t="n">
-        <v>0.27713</v>
+        <v>0.2772</v>
       </c>
       <c r="L82" t="n">
-        <v>114569.0165475409</v>
+        <v>114569.0000978878</v>
       </c>
     </row>
     <row r="83">
@@ -4557,22 +4557,22 @@
         <v>1926394.82</v>
       </c>
       <c r="G86" t="n">
-        <v>0.528640357134291</v>
+        <v>0.5282184655396619</v>
       </c>
       <c r="H86" t="n">
-        <v>0.3693813041983938</v>
+        <v>0.3691436251920123</v>
       </c>
       <c r="I86" t="n">
-        <v>0.6306186958016061</v>
+        <v>0.6308563748079877</v>
       </c>
       <c r="J86" t="n">
-        <v>376166.8556100753</v>
+        <v>375624.7964112903</v>
       </c>
       <c r="K86" t="n">
         <v>0.17666</v>
       </c>
       <c r="L86" t="n">
-        <v>66453.63671207591</v>
+        <v>66357.87653401855</v>
       </c>
     </row>
     <row r="87">
@@ -4605,22 +4605,22 @@
         <v>3080771.83</v>
       </c>
       <c r="G87" t="n">
-        <v>0.4582286996198042</v>
+        <v>0.4583482302466929</v>
       </c>
       <c r="H87" t="n">
-        <v>0.5040213385048934</v>
+        <v>0.50390343502282</v>
       </c>
       <c r="I87" t="n">
-        <v>0.4959786614951066</v>
+        <v>0.49609656497718</v>
       </c>
       <c r="J87" t="n">
-        <v>711525.9505472208</v>
+        <v>711545.0671498919</v>
       </c>
       <c r="K87" t="n">
-        <v>0.33543</v>
+        <v>0.33525</v>
       </c>
       <c r="L87" t="n">
-        <v>238667.1495920543</v>
+        <v>238545.4837620012</v>
       </c>
     </row>
     <row r="88">
@@ -4653,22 +4653,22 @@
         <v>14323829.79</v>
       </c>
       <c r="G88" t="n">
-        <v>0.5795426718628647</v>
+        <v>0.5796176553275233</v>
       </c>
       <c r="H88" t="n">
-        <v>0.4592587409696035</v>
+        <v>0.4593589379342408</v>
       </c>
       <c r="I88" t="n">
-        <v>0.5407412590303965</v>
+        <v>0.5406410620657592</v>
       </c>
       <c r="J88" t="n">
-        <v>3812431.078603552</v>
+        <v>3813756.215363149</v>
       </c>
       <c r="K88" t="n">
-        <v>0.22265</v>
+        <v>0.2226</v>
       </c>
       <c r="L88" t="n">
-        <v>848837.7796510808</v>
+        <v>848942.1335398369</v>
       </c>
     </row>
     <row r="89">
@@ -4701,22 +4701,22 @@
         <v>9331470.23</v>
       </c>
       <c r="G89" t="n">
-        <v>0.4093868536769419</v>
+        <v>0.4098154362416108</v>
       </c>
       <c r="H89" t="n">
-        <v>0.5212841313177365</v>
+        <v>0.521320795976383</v>
       </c>
       <c r="I89" t="n">
-        <v>0.4787158686822635</v>
+        <v>0.4786792040236169</v>
       </c>
       <c r="J89" t="n">
-        <v>1991399.857939353</v>
+        <v>1993624.844677455</v>
       </c>
       <c r="K89" t="n">
-        <v>0.2296</v>
+        <v>0.22958</v>
       </c>
       <c r="L89" t="n">
-        <v>457225.4073828753</v>
+        <v>457696.39184105</v>
       </c>
     </row>
     <row r="90">
@@ -4749,22 +4749,22 @@
         <v>16776682.44</v>
       </c>
       <c r="G90" t="n">
-        <v>0.5120832180805077</v>
+        <v>0.5120328702797886</v>
       </c>
       <c r="H90" t="n">
-        <v>0.6218883567573678</v>
+        <v>0.6215871085436303</v>
       </c>
       <c r="I90" t="n">
-        <v>0.3781116432426323</v>
+        <v>0.3784128914563697</v>
       </c>
       <c r="J90" t="n">
-        <v>5342678.651750367</v>
+        <v>5339565.575613256</v>
       </c>
       <c r="K90" t="n">
-        <v>0.28211</v>
+        <v>0.2819</v>
       </c>
       <c r="L90" t="n">
-        <v>1507223.074445296</v>
+        <v>1505223.535765377</v>
       </c>
     </row>
     <row r="91">
@@ -4797,22 +4797,22 @@
         <v>100431830.88</v>
       </c>
       <c r="G91" t="n">
-        <v>0.403602146135063</v>
+        <v>0.4035087719298245</v>
       </c>
       <c r="H91" t="n">
-        <v>0.579043046068892</v>
+        <v>0.5790152677183751</v>
       </c>
       <c r="I91" t="n">
-        <v>0.420956953931108</v>
+        <v>0.4209847322816249</v>
       </c>
       <c r="J91" t="n">
-        <v>23471221.78889915</v>
+        <v>23464665.95126113</v>
       </c>
       <c r="K91" t="n">
-        <v>0.26122</v>
+        <v>0.26106</v>
       </c>
       <c r="L91" t="n">
-        <v>6131152.555696235</v>
+        <v>6125685.693236232</v>
       </c>
     </row>
     <row r="92">
@@ -4845,22 +4845,22 @@
         <v>2105686.61</v>
       </c>
       <c r="G92" t="n">
-        <v>0.6811822527842121</v>
+        <v>0.6812835591920225</v>
       </c>
       <c r="H92" t="n">
-        <v>0.6583766986351296</v>
+        <v>0.6585283717797609</v>
       </c>
       <c r="I92" t="n">
-        <v>0.3416233013648704</v>
+        <v>0.3414716282202391</v>
       </c>
       <c r="J92" t="n">
-        <v>944346.7974953654</v>
+        <v>944704.8278068698</v>
       </c>
       <c r="K92" t="n">
-        <v>0.29706</v>
+        <v>0.29691</v>
       </c>
       <c r="L92" t="n">
-        <v>280527.6596639732</v>
+        <v>280492.3104241377</v>
       </c>
     </row>
     <row r="93">
@@ -4893,22 +4893,22 @@
         <v>649488.1</v>
       </c>
       <c r="G93" t="n">
-        <v>0.6125233043584511</v>
+        <v>0.6128818061088978</v>
       </c>
       <c r="H93" t="n">
-        <v>0.8220613603458209</v>
+        <v>0.8222768222768222</v>
       </c>
       <c r="I93" t="n">
-        <v>0.1779386396541792</v>
+        <v>0.1777231777231777</v>
       </c>
       <c r="J93" t="n">
-        <v>327037.8736377486</v>
+        <v>327315.0512148512</v>
       </c>
       <c r="K93" t="n">
-        <v>0.30078</v>
+        <v>0.30082</v>
       </c>
       <c r="L93" t="n">
-        <v>98366.45163276204</v>
+        <v>98462.91370645154</v>
       </c>
     </row>
     <row r="94">
@@ -4941,22 +4941,22 @@
         <v>8629717.699999999</v>
       </c>
       <c r="G94" t="n">
-        <v>0.5776361874232904</v>
+        <v>0.5776333118502536</v>
       </c>
       <c r="H94" t="n">
-        <v>0.7329875945943517</v>
+        <v>0.7330033274452614</v>
       </c>
       <c r="I94" t="n">
-        <v>0.2670124054056482</v>
+        <v>0.2669966725547385</v>
       </c>
       <c r="J94" t="n">
-        <v>3653823.851224482</v>
+        <v>3653884.087166741</v>
       </c>
       <c r="K94" t="n">
-        <v>0.2356</v>
+        <v>0.23565</v>
       </c>
       <c r="L94" t="n">
-        <v>860840.8993484878</v>
+        <v>861037.7851408425</v>
       </c>
     </row>
     <row r="95">
@@ -4989,22 +4989,22 @@
         <v>1824620.78</v>
       </c>
       <c r="G95" t="n">
-        <v>0.519002231992047</v>
+        <v>0.5189087488240827</v>
       </c>
       <c r="H95" t="n">
-        <v>0.6417100233381162</v>
+        <v>0.6414433985035</v>
       </c>
       <c r="I95" t="n">
-        <v>0.3582899766618837</v>
+        <v>0.3585566014965001</v>
       </c>
       <c r="J95" t="n">
-        <v>607688.0064706707</v>
+        <v>607326.1056287714</v>
       </c>
       <c r="K95" t="n">
-        <v>0.15879</v>
+        <v>0.15894</v>
       </c>
       <c r="L95" t="n">
-        <v>96494.77854747779</v>
+        <v>96528.41122863692</v>
       </c>
     </row>
     <row r="96">
@@ -5037,22 +5037,22 @@
         <v>1023666.14</v>
       </c>
       <c r="G96" t="n">
-        <v>0.418856177591829</v>
+        <v>0.4185897435897436</v>
       </c>
       <c r="H96" t="n">
-        <v>0.6714490306160801</v>
+        <v>0.6711120671112066</v>
       </c>
       <c r="I96" t="n">
-        <v>0.32855096938392</v>
+        <v>0.3288879328887933</v>
       </c>
       <c r="J96" t="n">
-        <v>287896.4532192954</v>
+        <v>287568.9350053775</v>
       </c>
       <c r="K96" t="n">
-        <v>-0.03626</v>
+        <v>-0.0364</v>
       </c>
       <c r="L96" t="n">
-        <v>-10439.12539373165</v>
+        <v>-10467.50923419574</v>
       </c>
     </row>
     <row r="97">
@@ -5085,22 +5085,22 @@
         <v>13752907.35</v>
       </c>
       <c r="G97" t="n">
-        <v>0.6083956100284765</v>
+        <v>0.608416418490224</v>
       </c>
       <c r="H97" t="n">
-        <v>0.6183103802867242</v>
+        <v>0.6182356708293308</v>
       </c>
       <c r="I97" t="n">
-        <v>0.3816896197132758</v>
+        <v>0.3817643291706692</v>
       </c>
       <c r="J97" t="n">
-        <v>5173531.842904576</v>
+        <v>5173083.658035543</v>
       </c>
       <c r="K97" t="n">
-        <v>0.29747</v>
+        <v>0.29758</v>
       </c>
       <c r="L97" t="n">
-        <v>1538970.517308824</v>
+        <v>1539406.234958217</v>
       </c>
     </row>
     <row r="98">
@@ -5133,22 +5133,22 @@
         <v>6756407.98</v>
       </c>
       <c r="G98" t="n">
-        <v>0.7160020076393839</v>
+        <v>0.7161430119176598</v>
       </c>
       <c r="H98" t="n">
-        <v>0.4766405972679123</v>
+        <v>0.4764793185777893</v>
       </c>
       <c r="I98" t="n">
-        <v>0.5233594027320877</v>
+        <v>0.5235206814222108</v>
       </c>
       <c r="J98" t="n">
-        <v>2305797.353198965</v>
+        <v>2305471.084612506</v>
       </c>
       <c r="K98" t="n">
-        <v>0.18734</v>
+        <v>0.18759</v>
       </c>
       <c r="L98" t="n">
-        <v>431968.0761482941</v>
+        <v>432483.3207624601</v>
       </c>
     </row>
     <row r="99">
@@ -5181,22 +5181,22 @@
         <v>4371378.46</v>
       </c>
       <c r="G99" t="n">
-        <v>0.5408750698985321</v>
+        <v>0.5408965788438852</v>
       </c>
       <c r="H99" t="n">
-        <v>0.5069737465612842</v>
+        <v>0.5069776714513556</v>
       </c>
       <c r="I99" t="n">
-        <v>0.4930262534387156</v>
+        <v>0.4930223285486444</v>
       </c>
       <c r="J99" t="n">
-        <v>1198673.329630271</v>
+        <v>1198730.277458134</v>
       </c>
       <c r="K99" t="n">
-        <v>-0.02609</v>
+        <v>-0.02591</v>
       </c>
       <c r="L99" t="n">
-        <v>-31273.38717005377</v>
+        <v>-31059.10148894025</v>
       </c>
     </row>
     <row r="100">
@@ -5229,22 +5229,22 @@
         <v>28840228.56</v>
       </c>
       <c r="G100" t="n">
-        <v>0.7278355352243691</v>
+        <v>0.7278240677503073</v>
       </c>
       <c r="H100" t="n">
-        <v>0.5530107755759429</v>
+        <v>0.5529790319656778</v>
       </c>
       <c r="I100" t="n">
-        <v>0.446989224424057</v>
+        <v>0.4470209680343222</v>
       </c>
       <c r="J100" t="n">
-        <v>11608217.77355074</v>
+        <v>11607368.56147683</v>
       </c>
       <c r="K100" t="n">
-        <v>0.14839</v>
+        <v>0.14835</v>
       </c>
       <c r="L100" t="n">
-        <v>1722543.435417194</v>
+        <v>1721953.126095088</v>
       </c>
     </row>
     <row r="101">
@@ -5277,22 +5277,22 @@
         <v>182826.61</v>
       </c>
       <c r="G101" t="n">
-        <v>0.6099609196190591</v>
+        <v>0.6100726895119418</v>
       </c>
       <c r="H101" t="n">
-        <v>0.6260798213483735</v>
+        <v>0.6262396358315722</v>
       </c>
       <c r="I101" t="n">
-        <v>0.3739201786516266</v>
+        <v>0.3737603641684279</v>
       </c>
       <c r="J101" t="n">
-        <v>69818.59801045265</v>
+        <v>69849.21695659243</v>
       </c>
       <c r="K101" t="n">
-        <v>0.13677</v>
+        <v>0.13666</v>
       </c>
       <c r="L101" t="n">
-        <v>9549.089649889609</v>
+        <v>9545.593989287921</v>
       </c>
     </row>
     <row r="102">
@@ -5325,22 +5325,22 @@
         <v>161241.61</v>
       </c>
       <c r="G102" t="n">
-        <v>0.6398850093593462</v>
+        <v>0.6399769585253456</v>
       </c>
       <c r="H102" t="n">
-        <v>0.6393420183685029</v>
+        <v>0.6394106813996316</v>
       </c>
       <c r="I102" t="n">
-        <v>0.3606579816314971</v>
+        <v>0.3605893186003683</v>
       </c>
       <c r="J102" t="n">
-        <v>65964.80906788498</v>
+        <v>65981.37337384898</v>
       </c>
       <c r="K102" t="n">
-        <v>0.1091</v>
+        <v>0.10893</v>
       </c>
       <c r="L102" t="n">
-        <v>7196.760669306252</v>
+        <v>7187.35100161337</v>
       </c>
     </row>
     <row r="103">
@@ -5373,22 +5373,22 @@
         <v>1272405.28</v>
       </c>
       <c r="G103" t="n">
-        <v>0.7301426105993011</v>
+        <v>0.7301464103016404</v>
       </c>
       <c r="H103" t="n">
-        <v>0.661771212098159</v>
+        <v>0.661864288049316</v>
       </c>
       <c r="I103" t="n">
-        <v>0.3382287879018411</v>
+        <v>0.3381357119506842</v>
       </c>
       <c r="J103" t="n">
-        <v>614810.1486287062</v>
+        <v>614899.8196161211</v>
       </c>
       <c r="K103" t="n">
-        <v>0.20769</v>
+        <v>0.20768</v>
       </c>
       <c r="L103" t="n">
-        <v>127689.919768696</v>
+        <v>127702.394537876</v>
       </c>
     </row>
     <row r="104">
@@ -5421,22 +5421,22 @@
         <v>29866970.79</v>
       </c>
       <c r="G104" t="n">
-        <v>0.2131516410162462</v>
+        <v>0.3153163152053274</v>
       </c>
       <c r="H104" t="n">
-        <v>0.5991911730892815</v>
+        <v>0.6053073563990594</v>
       </c>
       <c r="I104" t="n">
-        <v>0.4008088269107185</v>
+        <v>0.3946926436009406</v>
       </c>
       <c r="J104" t="n">
-        <v>3814567.152750209</v>
+        <v>5700508.163546523</v>
       </c>
       <c r="K104" t="n">
-        <v>0.36909</v>
+        <v>0.28312</v>
       </c>
       <c r="L104" t="n">
-        <v>1407918.590408575</v>
+        <v>1613927.871263291</v>
       </c>
     </row>
     <row r="105">
@@ -5469,22 +5469,22 @@
         <v>6616402.24</v>
       </c>
       <c r="G105" t="n">
-        <v>0.1457847505945202</v>
+        <v>0.07818294190358469</v>
       </c>
       <c r="H105" t="n">
-        <v>0.6208083501830146</v>
+        <v>0.6206367472190257</v>
       </c>
       <c r="I105" t="n">
-        <v>0.3791916498169853</v>
+        <v>0.3793632527809743</v>
       </c>
       <c r="J105" t="n">
-        <v>598813.4520236228</v>
+        <v>321049.0538396625</v>
       </c>
       <c r="K105" t="n">
-        <v>0.3068</v>
+        <v>0.24131</v>
       </c>
       <c r="L105" t="n">
-        <v>183715.9670808475</v>
+        <v>77472.34718204896</v>
       </c>
     </row>
     <row r="106">
@@ -5517,22 +5517,22 @@
         <v>12266920.62</v>
       </c>
       <c r="G106" t="n">
-        <v>0.2239978678794603</v>
+        <v>0.2032674429100099</v>
       </c>
       <c r="H106" t="n">
-        <v>0.6249202484967391</v>
+        <v>0.6606243105453027</v>
       </c>
       <c r="I106" t="n">
-        <v>0.3750797515032608</v>
+        <v>0.3393756894546972</v>
       </c>
       <c r="J106" t="n">
-        <v>1717133.401889381</v>
+        <v>1647243.984153126</v>
       </c>
       <c r="K106" t="n">
-        <v>0.42417</v>
+        <v>0.39213</v>
       </c>
       <c r="L106" t="n">
-        <v>728356.4750794185</v>
+        <v>645933.7835059653</v>
       </c>
     </row>
     <row r="107">
@@ -5565,22 +5565,22 @@
         <v>5687249.15</v>
       </c>
       <c r="G107" t="n">
-        <v>0.9036472251538643</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
-        <v>0.4987777003295503</v>
+        <v>0.4718782634641205</v>
       </c>
       <c r="I107" t="n">
-        <v>0.5012222996704496</v>
+        <v>0.5281217365358795</v>
       </c>
       <c r="J107" t="n">
-        <v>2563351.732323783</v>
+        <v>2683689.252789796</v>
       </c>
       <c r="K107" t="n">
-        <v>0.33303</v>
+        <v>0.09743</v>
       </c>
       <c r="L107" t="n">
-        <v>853673.0274157895</v>
+        <v>261471.8438993098</v>
       </c>
     </row>
     <row r="108">
@@ -5613,22 +5613,22 @@
         <v>2040027.59</v>
       </c>
       <c r="G108" t="n">
-        <v>0.7762652593337005</v>
+        <v>0.8075889585538636</v>
       </c>
       <c r="H108" t="n">
-        <v>0.517520489032216</v>
+        <v>0.4425904569698717</v>
       </c>
       <c r="I108" t="n">
-        <v>0.4824795109677841</v>
+        <v>0.5574095430301284</v>
       </c>
       <c r="J108" t="n">
-        <v>819546.7641417005</v>
+        <v>729169.4405946374</v>
       </c>
       <c r="K108" t="n">
-        <v>0.25049</v>
+        <v>0.38063</v>
       </c>
       <c r="L108" t="n">
-        <v>205288.2689498545</v>
+        <v>277543.7641735369</v>
       </c>
     </row>
     <row r="109">
@@ -5661,22 +5661,22 @@
         <v>12517690.9</v>
       </c>
       <c r="G109" t="n">
-        <v>0.9250192370228084</v>
+        <v>0.8620610511820062</v>
       </c>
       <c r="H109" t="n">
-        <v>0.5075471399388203</v>
+        <v>0.5276278458238184</v>
       </c>
       <c r="I109" t="n">
-        <v>0.4924528600611799</v>
+        <v>0.4723721541761816</v>
       </c>
       <c r="J109" t="n">
-        <v>5876941.567740617</v>
+        <v>5693639.352688396</v>
       </c>
       <c r="K109" t="n">
-        <v>0.27478</v>
+        <v>0.26361</v>
       </c>
       <c r="L109" t="n">
-        <v>1614866.003983767</v>
+        <v>1500900.269762188</v>
       </c>
     </row>
     <row r="110">
@@ -5709,22 +5709,22 @@
         <v>428073.54</v>
       </c>
       <c r="G110" t="n">
-        <v>0.5933786640702735</v>
+        <v>0.5935181569699336</v>
       </c>
       <c r="H110" t="n">
-        <v>0.7668660671915855</v>
+        <v>0.7669195448193253</v>
       </c>
       <c r="I110" t="n">
-        <v>0.2331339328084145</v>
+        <v>0.2330804551806748</v>
       </c>
       <c r="J110" t="n">
-        <v>194791.4237234942</v>
+        <v>194850.8027949691</v>
       </c>
       <c r="K110" t="n">
-        <v>0.29838</v>
+        <v>0.29823</v>
       </c>
       <c r="L110" t="n">
-        <v>58121.8650106162</v>
+        <v>58110.35491754363</v>
       </c>
     </row>
     <row r="111">
@@ -5757,22 +5757,22 @@
         <v>195196.3</v>
       </c>
       <c r="G111" t="n">
-        <v>0.5696149748930933</v>
+        <v>0.5696366782006921</v>
       </c>
       <c r="H111" t="n">
-        <v>0.5052169532111203</v>
+        <v>0.5052447552447552</v>
       </c>
       <c r="I111" t="n">
-        <v>0.4947830467888799</v>
+        <v>0.4947552447552448</v>
       </c>
       <c r="J111" t="n">
-        <v>56173.42375878683</v>
+        <v>56178.65539772727</v>
       </c>
       <c r="K111" t="n">
         <v>0.24845</v>
       </c>
       <c r="L111" t="n">
-        <v>13956.28713287059</v>
+        <v>13957.58693356534</v>
       </c>
     </row>
     <row r="112">
@@ -5805,22 +5805,22 @@
         <v>1571731.95</v>
       </c>
       <c r="G112" t="n">
-        <v>0.5715422550267676</v>
+        <v>0.5714004022557875</v>
       </c>
       <c r="H112" t="n">
-        <v>0.688825512573166</v>
+        <v>0.6887681651500747</v>
       </c>
       <c r="I112" t="n">
-        <v>0.311174487426834</v>
+        <v>0.3112318348499253</v>
       </c>
       <c r="J112" t="n">
-        <v>618779.6886336289</v>
+        <v>618574.6088157002</v>
       </c>
       <c r="K112" t="n">
-        <v>0.27713</v>
+        <v>0.2772</v>
       </c>
       <c r="L112" t="n">
-        <v>171482.4151110376</v>
+        <v>171468.8815637121</v>
       </c>
     </row>
     <row r="113">
@@ -5997,22 +5997,22 @@
         <v>1926394.82</v>
       </c>
       <c r="G116" t="n">
-        <v>0.7007038919634624</v>
+        <v>0.7003901170351104</v>
       </c>
       <c r="H116" t="n">
-        <v>0.3693813041983938</v>
+        <v>0.3691436251920123</v>
       </c>
       <c r="I116" t="n">
-        <v>0.6306186958016061</v>
+        <v>0.6308563748079877</v>
       </c>
       <c r="J116" t="n">
-        <v>498602.8330914578</v>
+        <v>498058.8757930106</v>
       </c>
       <c r="K116" t="n">
         <v>0.17666</v>
       </c>
       <c r="L116" t="n">
-        <v>88083.17649393695</v>
+        <v>87987.08099759326</v>
       </c>
     </row>
     <row r="117">
@@ -6045,22 +6045,22 @@
         <v>3080771.83</v>
       </c>
       <c r="G117" t="n">
-        <v>0.5737844498025622</v>
+        <v>0.5738291026099392</v>
       </c>
       <c r="H117" t="n">
-        <v>0.5040213385048934</v>
+        <v>0.50390343502282</v>
       </c>
       <c r="I117" t="n">
-        <v>0.4959786614951066</v>
+        <v>0.49609656497718</v>
       </c>
       <c r="J117" t="n">
-        <v>890958.000652776</v>
+        <v>890818.9023210424</v>
       </c>
       <c r="K117" t="n">
-        <v>0.33543</v>
+        <v>0.33525</v>
       </c>
       <c r="L117" t="n">
-        <v>298854.0421589607</v>
+        <v>298647.0370031294</v>
       </c>
     </row>
     <row r="118">
@@ -6093,22 +6093,22 @@
         <v>14323829.79</v>
       </c>
       <c r="G118" t="n">
-        <v>0.7269452191231112</v>
+        <v>0.7270171492831038</v>
       </c>
       <c r="H118" t="n">
-        <v>0.4592587409696035</v>
+        <v>0.4593589379342408</v>
       </c>
       <c r="I118" t="n">
-        <v>0.5407412590303965</v>
+        <v>0.5406410620657592</v>
       </c>
       <c r="J118" t="n">
-        <v>4782095.746148977</v>
+        <v>4783612.345602707</v>
       </c>
       <c r="K118" t="n">
-        <v>0.22265</v>
+        <v>0.2226</v>
       </c>
       <c r="L118" t="n">
-        <v>1064733.61788007</v>
+        <v>1064832.108131163</v>
       </c>
     </row>
     <row r="119">
@@ -6141,22 +6141,22 @@
         <v>9331470.23</v>
       </c>
       <c r="G119" t="n">
-        <v>0.5923484061253257</v>
+        <v>0.5924916107382551</v>
       </c>
       <c r="H119" t="n">
-        <v>0.5212841313177365</v>
+        <v>0.521320795976383</v>
       </c>
       <c r="I119" t="n">
-        <v>0.4787158686822635</v>
+        <v>0.4786792040236169</v>
       </c>
       <c r="J119" t="n">
-        <v>2881388.401249033</v>
+        <v>2882287.71044719</v>
       </c>
       <c r="K119" t="n">
-        <v>0.2296</v>
+        <v>0.22958</v>
       </c>
       <c r="L119" t="n">
-        <v>661566.7769267779</v>
+        <v>661715.6125644658</v>
       </c>
     </row>
     <row r="120">
@@ -6189,22 +6189,22 @@
         <v>16776682.44</v>
       </c>
       <c r="G120" t="n">
-        <v>0.6553894993084635</v>
+        <v>0.6552533750733712</v>
       </c>
       <c r="H120" t="n">
-        <v>0.6218883567573678</v>
+        <v>0.6215871085436303</v>
       </c>
       <c r="I120" t="n">
-        <v>0.3781116432426323</v>
+        <v>0.3784128914563697</v>
       </c>
       <c r="J120" t="n">
-        <v>6837825.109094264</v>
+        <v>6833093.27960596</v>
       </c>
       <c r="K120" t="n">
-        <v>0.28211</v>
+        <v>0.2819</v>
       </c>
       <c r="L120" t="n">
-        <v>1929018.841526583</v>
+        <v>1926248.99552092</v>
       </c>
     </row>
     <row r="121">
@@ -6237,22 +6237,22 @@
         <v>100431830.88</v>
       </c>
       <c r="G121" t="n">
-        <v>0.5823381424319135</v>
+        <v>0.582280701754386</v>
       </c>
       <c r="H121" t="n">
-        <v>0.579043046068892</v>
+        <v>0.5790152677183751</v>
       </c>
       <c r="I121" t="n">
-        <v>0.420956953931108</v>
+        <v>0.4209847322816249</v>
       </c>
       <c r="J121" t="n">
-        <v>33865498.06051082</v>
+        <v>33860533.17053726</v>
       </c>
       <c r="K121" t="n">
-        <v>0.26122</v>
+        <v>0.26106</v>
       </c>
       <c r="L121" t="n">
-        <v>8846345.403366636</v>
+        <v>8839630.789500458</v>
       </c>
     </row>
     <row r="122">
@@ -6285,22 +6285,22 @@
         <v>2105686.61</v>
       </c>
       <c r="G122" t="n">
-        <v>0.8506244589671501</v>
+        <v>0.8506775760675021</v>
       </c>
       <c r="H122" t="n">
-        <v>0.6583766986351296</v>
+        <v>0.6585283717797609</v>
       </c>
       <c r="I122" t="n">
-        <v>0.3416233013648704</v>
+        <v>0.3414716282202391</v>
       </c>
       <c r="J122" t="n">
-        <v>1179250.45817558</v>
+        <v>1179595.782365718</v>
       </c>
       <c r="K122" t="n">
-        <v>0.29706</v>
+        <v>0.29691</v>
       </c>
       <c r="L122" t="n">
-        <v>350308.1411056379</v>
+        <v>350233.7837422054</v>
       </c>
     </row>
     <row r="123">
@@ -6333,22 +6333,22 @@
         <v>649488.1</v>
       </c>
       <c r="G123" t="n">
-        <v>0.7894039788341494</v>
+        <v>0.7898406374501992</v>
       </c>
       <c r="H123" t="n">
-        <v>0.8220613603458209</v>
+        <v>0.8222768222768222</v>
       </c>
       <c r="I123" t="n">
-        <v>0.1779386396541792</v>
+        <v>0.1777231777231777</v>
       </c>
       <c r="J123" t="n">
-        <v>421477.8390342179</v>
+        <v>421821.5096642096</v>
       </c>
       <c r="K123" t="n">
-        <v>0.30078</v>
+        <v>0.30082</v>
       </c>
       <c r="L123" t="n">
-        <v>126772.104424712</v>
+        <v>126892.3465371875</v>
       </c>
     </row>
     <row r="124">
@@ -6381,22 +6381,22 @@
         <v>8629717.699999999</v>
       </c>
       <c r="G124" t="n">
-        <v>0.7015216090293883</v>
+        <v>0.7015439796004147</v>
       </c>
       <c r="H124" t="n">
-        <v>0.7329875945943517</v>
+        <v>0.7330033274452614</v>
       </c>
       <c r="I124" t="n">
-        <v>0.2670124054056482</v>
+        <v>0.2669966725547385</v>
       </c>
       <c r="J124" t="n">
-        <v>4437458.114691527</v>
+        <v>4437694.867871666</v>
       </c>
       <c r="K124" t="n">
-        <v>0.2356</v>
+        <v>0.23565</v>
       </c>
       <c r="L124" t="n">
-        <v>1045465.131821324</v>
+        <v>1045742.795613958</v>
       </c>
     </row>
     <row r="125">
@@ -6429,22 +6429,22 @@
         <v>1824620.78</v>
       </c>
       <c r="G125" t="n">
-        <v>0.6272093167466077</v>
+        <v>0.6270931326434618</v>
       </c>
       <c r="H125" t="n">
-        <v>0.6417100233381162</v>
+        <v>0.6414433985035</v>
       </c>
       <c r="I125" t="n">
-        <v>0.3582899766618837</v>
+        <v>0.3585566014965001</v>
       </c>
       <c r="J125" t="n">
-        <v>734385.2412168779</v>
+        <v>733944.1298262129</v>
       </c>
       <c r="K125" t="n">
-        <v>0.15879</v>
+        <v>0.15894</v>
       </c>
       <c r="L125" t="n">
-        <v>116613.032452828</v>
+        <v>116653.0799945783</v>
       </c>
     </row>
     <row r="126">
@@ -6477,22 +6477,22 @@
         <v>1023666.14</v>
       </c>
       <c r="G126" t="n">
-        <v>0.4721698568439101</v>
+        <v>0.4717948717948718</v>
       </c>
       <c r="H126" t="n">
-        <v>0.6714490306160801</v>
+        <v>0.6711120671112066</v>
       </c>
       <c r="I126" t="n">
-        <v>0.32855096938392</v>
+        <v>0.3288879328887933</v>
       </c>
       <c r="J126" t="n">
-        <v>324541.0581836813</v>
+        <v>324120.5760550656</v>
       </c>
       <c r="K126" t="n">
-        <v>-0.03626</v>
+        <v>-0.0364</v>
       </c>
       <c r="L126" t="n">
-        <v>-11767.85876974029</v>
+        <v>-11797.98896840439</v>
       </c>
     </row>
     <row r="127">
@@ -6525,22 +6525,22 @@
         <v>13752907.35</v>
       </c>
       <c r="G127" t="n">
-        <v>0.7226383011612711</v>
+        <v>0.7226466399067719</v>
       </c>
       <c r="H127" t="n">
-        <v>0.6183103802867242</v>
+        <v>0.6182356708293308</v>
       </c>
       <c r="I127" t="n">
-        <v>0.3816896197132758</v>
+        <v>0.3817643291706692</v>
       </c>
       <c r="J127" t="n">
-        <v>6145002.035411325</v>
+        <v>6144330.445112872</v>
       </c>
       <c r="K127" t="n">
-        <v>0.29747</v>
+        <v>0.29758</v>
       </c>
       <c r="L127" t="n">
-        <v>1827953.755473807</v>
+        <v>1828429.853856689</v>
       </c>
     </row>
     <row r="128">
@@ -6573,22 +6573,22 @@
         <v>6756407.98</v>
       </c>
       <c r="G128" t="n">
-        <v>0.8511705939936181</v>
+        <v>0.8513001083423618</v>
       </c>
       <c r="H128" t="n">
-        <v>0.4766405972679123</v>
+        <v>0.4764793185777893</v>
       </c>
       <c r="I128" t="n">
-        <v>0.5233594027320877</v>
+        <v>0.5235206814222108</v>
       </c>
       <c r="J128" t="n">
-        <v>2741091.340263053</v>
+        <v>2740580.793849132</v>
       </c>
       <c r="K128" t="n">
-        <v>0.18734</v>
+        <v>0.18759</v>
       </c>
       <c r="L128" t="n">
-        <v>513516.0516848803</v>
+        <v>514105.5511181587</v>
       </c>
     </row>
     <row r="129">
@@ -6621,22 +6621,22 @@
         <v>4371378.46</v>
       </c>
       <c r="G129" t="n">
-        <v>0.7836648940340866</v>
+        <v>0.7837200157294534</v>
       </c>
       <c r="H129" t="n">
-        <v>0.5069737465612842</v>
+        <v>0.5069776714513556</v>
       </c>
       <c r="I129" t="n">
-        <v>0.4930262534387156</v>
+        <v>0.4930223285486444</v>
       </c>
       <c r="J129" t="n">
-        <v>1736737.853387133</v>
+        <v>1736873.459086922</v>
       </c>
       <c r="K129" t="n">
-        <v>-0.02609</v>
+        <v>-0.02591</v>
       </c>
       <c r="L129" t="n">
-        <v>-45311.49059487031</v>
+        <v>-45002.39132494214</v>
       </c>
     </row>
     <row r="130">
@@ -6669,22 +6669,22 @@
         <v>28840228.56</v>
       </c>
       <c r="G130" t="n">
-        <v>0.8357235217043518</v>
+        <v>0.8357055047124708</v>
       </c>
       <c r="H130" t="n">
-        <v>0.5530107755759429</v>
+        <v>0.5529790319656778</v>
       </c>
       <c r="I130" t="n">
-        <v>0.446989224424057</v>
+        <v>0.4470209680343222</v>
       </c>
       <c r="J130" t="n">
-        <v>13328918.64840356</v>
+        <v>13327866.21365279</v>
       </c>
       <c r="K130" t="n">
-        <v>0.14839</v>
+        <v>0.14835</v>
       </c>
       <c r="L130" t="n">
-        <v>1977878.238236604</v>
+        <v>1977188.952795391</v>
       </c>
     </row>
     <row r="131">
@@ -6717,22 +6717,22 @@
         <v>182826.61</v>
       </c>
       <c r="G131" t="n">
-        <v>0.8338304371368853</v>
+        <v>0.8338525441329179</v>
       </c>
       <c r="H131" t="n">
-        <v>0.6260798213483735</v>
+        <v>0.6262396358315722</v>
       </c>
       <c r="I131" t="n">
-        <v>0.3739201786516266</v>
+        <v>0.3737603641684279</v>
       </c>
       <c r="J131" t="n">
-        <v>95443.60995405834</v>
+        <v>95470.50419769144</v>
       </c>
       <c r="K131" t="n">
-        <v>0.13677</v>
+        <v>0.13666</v>
       </c>
       <c r="L131" t="n">
-        <v>13053.82253341656</v>
+        <v>13046.99910365651</v>
       </c>
     </row>
     <row r="132">
@@ -6765,22 +6765,22 @@
         <v>161241.61</v>
       </c>
       <c r="G132" t="n">
-        <v>0.8015001340401708</v>
+        <v>0.8015552995391705</v>
       </c>
       <c r="H132" t="n">
-        <v>0.6393420183685029</v>
+        <v>0.6394106813996316</v>
       </c>
       <c r="I132" t="n">
-        <v>0.3606579816314971</v>
+        <v>0.3605893186003683</v>
       </c>
       <c r="J132" t="n">
-        <v>82625.47572848819</v>
+        <v>82640.0369484346</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1091</v>
+        <v>0.10893</v>
       </c>
       <c r="L132" t="n">
-        <v>9014.439401978061</v>
+        <v>9001.979224792982</v>
       </c>
     </row>
     <row r="133">
@@ -6813,22 +6813,22 @@
         <v>1272405.28</v>
       </c>
       <c r="G133" t="n">
-        <v>0.8308629924082102</v>
+        <v>0.8308696419121536</v>
       </c>
       <c r="H133" t="n">
-        <v>0.661771212098159</v>
+        <v>0.661864288049316</v>
       </c>
       <c r="I133" t="n">
-        <v>0.3382287879018411</v>
+        <v>0.3381357119506842</v>
       </c>
       <c r="J133" t="n">
-        <v>699620.8582228884</v>
+        <v>699724.8575463503</v>
       </c>
       <c r="K133" t="n">
-        <v>0.20769</v>
+        <v>0.20768</v>
       </c>
       <c r="L133" t="n">
-        <v>145304.2560443117</v>
+        <v>145318.858415226</v>
       </c>
     </row>
     <row r="134">
@@ -6861,22 +6861,22 @@
         <v>29866970.79</v>
       </c>
       <c r="G134" t="n">
-        <v>0.459726171492972</v>
+        <v>0.5650388457269702</v>
       </c>
       <c r="H134" t="n">
-        <v>0.5991911730892815</v>
+        <v>0.6053073563990594</v>
       </c>
       <c r="I134" t="n">
-        <v>0.4008088269107185</v>
+        <v>0.3946926436009406</v>
       </c>
       <c r="J134" t="n">
-        <v>8227271.179690513</v>
+        <v>10215166.16001948</v>
       </c>
       <c r="K134" t="n">
-        <v>0.36909</v>
+        <v>0.28312</v>
       </c>
       <c r="L134" t="n">
-        <v>3036603.519711971</v>
+        <v>2892117.843224716</v>
       </c>
     </row>
     <row r="135">
@@ -6909,22 +6909,22 @@
         <v>6616402.24</v>
       </c>
       <c r="G135" t="n">
-        <v>0.326779642526687</v>
+        <v>0.2348578491965389</v>
       </c>
       <c r="H135" t="n">
-        <v>0.6208083501830146</v>
+        <v>0.6206367472190257</v>
       </c>
       <c r="I135" t="n">
-        <v>0.3791916498169853</v>
+        <v>0.3793632527809743</v>
       </c>
       <c r="J135" t="n">
-        <v>1342253.184880135</v>
+        <v>964416.130111239</v>
       </c>
       <c r="K135" t="n">
-        <v>0.3068</v>
+        <v>0.24131</v>
       </c>
       <c r="L135" t="n">
-        <v>411803.2771212254</v>
+        <v>232723.2563571431</v>
       </c>
     </row>
     <row r="136">
@@ -6957,22 +6957,22 @@
         <v>12266920.62</v>
       </c>
       <c r="G136" t="n">
-        <v>0.3733834313022656</v>
+        <v>0.450176008665042</v>
       </c>
       <c r="H136" t="n">
-        <v>0.6249202484967391</v>
+        <v>0.6606243105453027</v>
       </c>
       <c r="I136" t="n">
-        <v>0.3750797515032608</v>
+        <v>0.3393756894546972</v>
       </c>
       <c r="J136" t="n">
-        <v>2862300.287367958</v>
+        <v>3648148.033287618</v>
       </c>
       <c r="K136" t="n">
-        <v>0.42417</v>
+        <v>0.39213</v>
       </c>
       <c r="L136" t="n">
-        <v>1214101.912892867</v>
+        <v>1430548.288293073</v>
       </c>
     </row>
     <row r="137">
@@ -7005,22 +7005,22 @@
         <v>5687249.15</v>
       </c>
       <c r="G137" t="n">
-        <v>0.9562813858796361</v>
+        <v>1</v>
       </c>
       <c r="H137" t="n">
-        <v>0.4987777003295503</v>
+        <v>0.4718782634641205</v>
       </c>
       <c r="I137" t="n">
-        <v>0.5012222996704496</v>
+        <v>0.5281217365358795</v>
       </c>
       <c r="J137" t="n">
-        <v>2712657.637681753</v>
+        <v>2683689.252789796</v>
       </c>
       <c r="K137" t="n">
-        <v>0.33303</v>
+        <v>0.09743</v>
       </c>
       <c r="L137" t="n">
-        <v>903396.3730771543</v>
+        <v>261471.8438993098</v>
       </c>
     </row>
     <row r="138">
@@ -7053,22 +7053,22 @@
         <v>2040027.59</v>
       </c>
       <c r="G138" t="n">
-        <v>0.9271923478572413</v>
+        <v>0.9327416334174741</v>
       </c>
       <c r="H138" t="n">
-        <v>0.517520489032216</v>
+        <v>0.4425904569698717</v>
       </c>
       <c r="I138" t="n">
-        <v>0.4824795109677841</v>
+        <v>0.5574095430301284</v>
       </c>
       <c r="J138" t="n">
-        <v>978888.9548858353</v>
+        <v>842169.3831429292</v>
       </c>
       <c r="K138" t="n">
-        <v>0.25049</v>
+        <v>0.38063</v>
       </c>
       <c r="L138" t="n">
-        <v>245201.8943093529</v>
+        <v>320554.9323056932</v>
       </c>
     </row>
     <row r="139">
@@ -7101,22 +7101,22 @@
         <v>12517690.9</v>
       </c>
       <c r="G139" t="n">
-        <v>0.9653920207038175</v>
+        <v>0.9475720515426737</v>
       </c>
       <c r="H139" t="n">
-        <v>0.5075471399388203</v>
+        <v>0.5276278458238184</v>
       </c>
       <c r="I139" t="n">
-        <v>0.4924528600611799</v>
+        <v>0.4723721541761816</v>
       </c>
       <c r="J139" t="n">
-        <v>6133442.709688731</v>
+        <v>6258412.341879455</v>
       </c>
       <c r="K139" t="n">
-        <v>0.27478</v>
+        <v>0.26361</v>
       </c>
       <c r="L139" t="n">
-        <v>1685347.38776827</v>
+        <v>1649780.077442843</v>
       </c>
     </row>
     <row r="140">
@@ -7149,22 +7149,22 @@
         <v>428073.54</v>
       </c>
       <c r="G140" t="n">
-        <v>0.774061866149837</v>
+        <v>0.7741767538721853</v>
       </c>
       <c r="H140" t="n">
-        <v>0.7668660671915855</v>
+        <v>0.7669195448193253</v>
       </c>
       <c r="I140" t="n">
-        <v>0.2331339328084145</v>
+        <v>0.2330804551806748</v>
       </c>
       <c r="J140" t="n">
-        <v>254105.2149113584</v>
+        <v>254160.6524176482</v>
       </c>
       <c r="K140" t="n">
-        <v>0.29838</v>
+        <v>0.29823</v>
       </c>
       <c r="L140" t="n">
-        <v>75819.9140252511</v>
+        <v>75798.33137051522</v>
       </c>
     </row>
     <row r="141">
@@ -7197,22 +7197,22 @@
         <v>195196.3</v>
       </c>
       <c r="G141" t="n">
-        <v>0.5696149748930933</v>
+        <v>0.5696366782006921</v>
       </c>
       <c r="H141" t="n">
-        <v>0.5052169532111203</v>
+        <v>0.5052447552447552</v>
       </c>
       <c r="I141" t="n">
-        <v>0.4947830467888799</v>
+        <v>0.4947552447552448</v>
       </c>
       <c r="J141" t="n">
-        <v>56173.42375878683</v>
+        <v>56178.65539772727</v>
       </c>
       <c r="K141" t="n">
         <v>0.24845</v>
       </c>
       <c r="L141" t="n">
-        <v>13956.28713287059</v>
+        <v>13957.58693356534</v>
       </c>
     </row>
     <row r="142">
@@ -7245,22 +7245,22 @@
         <v>1571731.95</v>
       </c>
       <c r="G142" t="n">
-        <v>0.7001924043188738</v>
+        <v>0.7000828173679853</v>
       </c>
       <c r="H142" t="n">
-        <v>0.688825512573166</v>
+        <v>0.6887681651500747</v>
       </c>
       <c r="I142" t="n">
-        <v>0.311174487426834</v>
+        <v>0.3112318348499253</v>
       </c>
       <c r="J142" t="n">
-        <v>758062.6526165999</v>
+        <v>757880.9065978541</v>
       </c>
       <c r="K142" t="n">
-        <v>0.27713</v>
+        <v>0.2772</v>
       </c>
       <c r="L142" t="n">
-        <v>210081.9029196383</v>
+        <v>210084.5873089252</v>
       </c>
     </row>
     <row r="143">
@@ -7437,22 +7437,22 @@
         <v>1926394.82</v>
       </c>
       <c r="G146" t="n">
-        <v>0.8297295470156092</v>
+        <v>0.8296488946684005</v>
       </c>
       <c r="H146" t="n">
-        <v>0.3693813041983938</v>
+        <v>0.3691436251920123</v>
       </c>
       <c r="I146" t="n">
-        <v>0.6306186958016061</v>
+        <v>0.6308563748079877</v>
       </c>
       <c r="J146" t="n">
-        <v>590414.16436609</v>
+        <v>589976.9081989247</v>
       </c>
       <c r="K146" t="n">
         <v>0.17666</v>
       </c>
       <c r="L146" t="n">
-        <v>104302.5662769135</v>
+        <v>104225.3206024221</v>
       </c>
     </row>
     <row r="147">
@@ -7485,22 +7485,22 @@
         <v>3080771.83</v>
       </c>
       <c r="G147" t="n">
-        <v>0.6976116772425445</v>
+        <v>0.6977714217614112</v>
       </c>
       <c r="H147" t="n">
-        <v>0.5040213385048934</v>
+        <v>0.50390343502282</v>
       </c>
       <c r="I147" t="n">
-        <v>0.4959786614951066</v>
+        <v>0.49609656497718</v>
       </c>
       <c r="J147" t="n">
-        <v>1083233.791717288</v>
+        <v>1083228.384857675</v>
       </c>
       <c r="K147" t="n">
-        <v>0.33543</v>
+        <v>0.33525</v>
       </c>
       <c r="L147" t="n">
-        <v>363349.1107557298</v>
+        <v>363152.3160235355</v>
       </c>
     </row>
     <row r="148">
@@ -7533,22 +7533,22 @@
         <v>14323829.79</v>
       </c>
       <c r="G148" t="n">
-        <v>0.8182395587717545</v>
+        <v>0.8182738262580826</v>
       </c>
       <c r="H148" t="n">
-        <v>0.4592587409696035</v>
+        <v>0.4593589379342408</v>
       </c>
       <c r="I148" t="n">
-        <v>0.5407412590303965</v>
+        <v>0.5406410620657592</v>
       </c>
       <c r="J148" t="n">
-        <v>5382661.320825825</v>
+        <v>5384061.134227084</v>
       </c>
       <c r="K148" t="n">
-        <v>0.22265</v>
+        <v>0.2226</v>
       </c>
       <c r="L148" t="n">
-        <v>1198449.54308187</v>
+        <v>1198492.008478949</v>
       </c>
     </row>
     <row r="149">
@@ -7581,22 +7581,22 @@
         <v>9331470.23</v>
       </c>
       <c r="G149" t="n">
-        <v>0.7810697126115753</v>
+        <v>0.7812500000000001</v>
       </c>
       <c r="H149" t="n">
-        <v>0.5212841313177365</v>
+        <v>0.521320795976383</v>
       </c>
       <c r="I149" t="n">
-        <v>0.4787158686822635</v>
+        <v>0.4786792040236169</v>
       </c>
       <c r="J149" t="n">
-        <v>3799394.388865372</v>
+        <v>3800538.662448064</v>
       </c>
       <c r="K149" t="n">
-        <v>0.2296</v>
+        <v>0.22958</v>
       </c>
       <c r="L149" t="n">
-        <v>872340.9516834894</v>
+        <v>872527.6661248266</v>
       </c>
     </row>
     <row r="150">
@@ -7629,22 +7629,22 @@
         <v>16776682.44</v>
       </c>
       <c r="G150" t="n">
-        <v>0.7801431393623306</v>
+        <v>0.7801800039131286</v>
       </c>
       <c r="H150" t="n">
-        <v>0.6218883567573678</v>
+        <v>0.6215871085436303</v>
       </c>
       <c r="I150" t="n">
-        <v>0.3781116432426323</v>
+        <v>0.3784128914563697</v>
       </c>
       <c r="J150" t="n">
-        <v>8139407.715027579</v>
+        <v>8135849.34381271</v>
       </c>
       <c r="K150" t="n">
-        <v>0.28211</v>
+        <v>0.2819</v>
       </c>
       <c r="L150" t="n">
-        <v>2296208.310486431</v>
+        <v>2293495.930020803</v>
       </c>
     </row>
     <row r="151">
@@ -7677,22 +7677,22 @@
         <v>100431830.88</v>
       </c>
       <c r="G151" t="n">
-        <v>0.7981429081181504</v>
+        <v>0.7981228070175439</v>
       </c>
       <c r="H151" t="n">
-        <v>0.579043046068892</v>
+        <v>0.5790152677183751</v>
       </c>
       <c r="I151" t="n">
-        <v>0.420956953931108</v>
+        <v>0.4209847322816249</v>
       </c>
       <c r="J151" t="n">
-        <v>46415484.64266352</v>
+        <v>46412089.04872708</v>
       </c>
       <c r="K151" t="n">
-        <v>0.26122</v>
+        <v>0.26106</v>
       </c>
       <c r="L151" t="n">
-        <v>12124652.89835657</v>
+        <v>12116339.96706069</v>
       </c>
     </row>
   </sheetData>
